--- a/etc/initial_data.xlsx
+++ b/etc/initial_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="P-3" sheetId="2" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -971,6 +971,57 @@
   <si>
     <t>Р-4</t>
   </si>
+  <si>
+    <t>Разработал</t>
+  </si>
+  <si>
+    <t>Проверил</t>
+  </si>
+  <si>
+    <t>ГИП</t>
+  </si>
+  <si>
+    <t>Н.контроль</t>
+  </si>
+  <si>
+    <t>Новиков Д.А.</t>
+  </si>
+  <si>
+    <t>Старовойт Е.А.</t>
+  </si>
+  <si>
+    <t>Шестоперов В.Г.</t>
+  </si>
+  <si>
+    <t>Дорофеев С.С</t>
+  </si>
+  <si>
+    <t>4740.XV-ТКР 2.2</t>
+  </si>
+  <si>
+    <t>Искусственные сооружения. Мост через канал им. Москвы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Организация пригородно-городского пассажирского железнодорожного движения на участке Одинцово - Лобня (МЦД-1 Одинцово - Лобня) Этап 15. «Строительство III и IV главных путей на участке Москва-Бутырская - Лобня». </t>
+  </si>
+  <si>
+    <t>9-th-10-th column indent</t>
+  </si>
+  <si>
+    <t>&lt;---Шифр</t>
+  </si>
+  <si>
+    <t>&lt;---Название чертежа</t>
+  </si>
+  <si>
+    <t>&lt;---Сквозная</t>
+  </si>
+  <si>
+    <t>&lt;---№ в штампе</t>
+  </si>
+  <si>
+    <t>&lt;---Название     объекта</t>
+  </si>
 </sst>
 </file>
 
@@ -1048,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1750,11 +1801,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,12 +2213,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,111 +2256,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2296,24 +2325,172 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2323,43 +2500,195 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2668,15 +2997,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="35" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="35" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35" customWidth="1"/>
@@ -2687,16 +3016,16 @@
     <col min="11" max="11" width="6.7109375" style="35" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="35" customWidth="1"/>
     <col min="13" max="13" width="7.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="35" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="35" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="35" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="35" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" style="35" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="35" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="35" customWidth="1"/>
-    <col min="21" max="21" width="29" style="35" customWidth="1"/>
-    <col min="22" max="22" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="35" customWidth="1"/>
+    <col min="21" max="21" width="38.140625" style="35" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="35" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="35" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="35"/>
     <col min="26" max="27" width="9.28515625" style="35" bestFit="1" customWidth="1"/>
@@ -2710,21 +3039,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="143"/>
+      <c r="A1" s="187"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="170" t="s">
+      <c r="C1" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="192"/>
+      <c r="E1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="133" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -2747,19 +3076,19 @@
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="171" t="s">
+      <c r="P1" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="169" t="s">
+      <c r="Q1" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="176" t="s">
+      <c r="R1" s="139" t="s">
         <v>89</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="175" t="s">
+      <c r="T1" s="138" t="s">
         <v>90</v>
       </c>
       <c r="U1" s="24" t="s">
@@ -2769,7 +3098,7 @@
       <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:35" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144"/>
+      <c r="A2" s="188"/>
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
@@ -2809,22 +3138,22 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="172">
+      <c r="P2" s="135">
         <v>20</v>
       </c>
       <c r="Q2" s="8">
         <v>10</v>
       </c>
-      <c r="R2" s="173" t="s">
+      <c r="R2" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="174" t="s">
+      <c r="S2" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="120" t="s">
+      <c r="T2" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="174">
+      <c r="U2" s="137">
         <v>7850</v>
       </c>
       <c r="AH2" s="1"/>
@@ -2848,13 +3177,13 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="177" t="s">
+      <c r="S3" s="140" t="s">
         <v>94</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="36"/>
     </row>
-    <row r="4" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2873,11 +3202,15 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="214"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="229"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="36"/>
     </row>
-    <row r="5" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +3229,11 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="217"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="36"/>
     </row>
@@ -2919,92 +3256,101 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="266"/>
+      <c r="T6" s="267"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="269"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="271"/>
+      <c r="U7" s="271"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="272"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="110" t="s">
+      <c r="B8" s="244"/>
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="113" t="s">
+      <c r="K8" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="112" t="s">
+      <c r="N8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="36"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="271"/>
+      <c r="V8" s="270"/>
+      <c r="W8" s="272"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="167" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="48">
@@ -3026,7 +3372,7 @@
       <c r="H9" s="101">
         <v>0</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="58">
         <f>F2</f>
         <v>8053</v>
       </c>
@@ -3034,7 +3380,7 @@
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="252">
         <v>0</v>
       </c>
       <c r="L9" s="48">
@@ -3050,19 +3396,19 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="271"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="272"/>
+      <c r="X9" s="115"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="36"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
-      <c r="B10" s="114" t="s">
+    <row r="10" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="201"/>
+      <c r="B10" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="107">
@@ -3086,7 +3432,7 @@
       <c r="H10" s="76">
         <v>0</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="30">
         <f>F2</f>
         <v>8053</v>
       </c>
@@ -3094,7 +3440,7 @@
         <f>K2</f>
         <v>550</v>
       </c>
-      <c r="K10" s="106">
+      <c r="K10" s="261">
         <v>0</v>
       </c>
       <c r="L10" s="50">
@@ -3110,152 +3456,150 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="270"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="272"/>
+      <c r="X10" s="115"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="36"/>
     </row>
-    <row r="11" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152"/>
-      <c r="B11" s="114" t="s">
+    <row r="11" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="201"/>
+      <c r="B11" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="103">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="240">
         <f t="shared" ref="D11:E11" si="0">M9</f>
         <v>12</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E11" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="53">
         <f>I9</f>
         <v>8053</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="54">
         <f t="shared" ref="G11:H11" si="1">J9</f>
         <v>12</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="60">
         <f>F10</f>
         <v>8053</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="54">
         <f t="shared" ref="J11:K11" si="2">G10</f>
         <v>538</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="251">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="53">
         <f>C10</f>
         <v>0</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="54">
         <f>D10</f>
         <v>538</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="77">
         <f t="shared" ref="N11" si="3">E10</f>
         <v>0</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="164" t="s">
-        <v>110</v>
-      </c>
-      <c r="S11" s="165"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="117"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="275"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="115"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="36"/>
     </row>
-    <row r="12" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145" t="s">
+    <row r="12" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="245" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="241">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
-      <c r="D12" s="33">
-        <v>0</v>
-      </c>
-      <c r="E12" s="106">
-        <v>0</v>
-      </c>
-      <c r="F12" s="116">
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="102">
+        <v>0</v>
+      </c>
+      <c r="F12" s="241">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <f>$J$2</f>
         <v>12</v>
       </c>
-      <c r="H12" s="106">
-        <v>0</v>
-      </c>
-      <c r="I12" s="116">
+      <c r="H12" s="102">
+        <v>0</v>
+      </c>
+      <c r="I12" s="248">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="106">
-        <v>0</v>
-      </c>
-      <c r="L12" s="116">
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="252">
+        <v>0</v>
+      </c>
+      <c r="L12" s="241">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <f>$J$2</f>
         <v>12</v>
       </c>
-      <c r="N12" s="106">
+      <c r="N12" s="102">
         <v>0</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="118"/>
+      <c r="P12" s="116"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="117"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="210"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="115"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="36"/>
     </row>
-    <row r="13" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="116">
+    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="201"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -3266,7 +3610,7 @@
       <c r="E13" s="106">
         <v>0</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -3277,7 +3621,7 @@
       <c r="H13" s="76">
         <v>0</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="249">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -3285,10 +3629,10 @@
         <f>$K$2-$H$2</f>
         <v>538</v>
       </c>
-      <c r="K13" s="106">
-        <v>0</v>
-      </c>
-      <c r="L13" s="116">
+      <c r="K13" s="261">
+        <v>0</v>
+      </c>
+      <c r="L13" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -3300,30 +3644,30 @@
         <v>0</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="118"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="117"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="115"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="190"/>
+      <c r="B14" s="113" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="103">
         <v>0</v>
       </c>
       <c r="D14" s="56">
-        <f>-2*$P$2</f>
-        <v>-40</v>
+        <f>-0.5*$P$2</f>
+        <v>-10</v>
       </c>
       <c r="E14" s="104">
         <v>0</v>
@@ -3332,28 +3676,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="54">
-        <f>$J$2+2*$P$2</f>
-        <v>52</v>
+        <f>$J$2+0.5*$P$2</f>
+        <v>22</v>
       </c>
       <c r="H14" s="77">
         <v>0</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="260">
         <v>0</v>
       </c>
       <c r="J14" s="56">
-        <f>$K$2-$H$2-2*$P$2</f>
-        <v>498</v>
-      </c>
-      <c r="K14" s="104">
+        <f>$K$2-$H$2-0.5*$P$2</f>
+        <v>528</v>
+      </c>
+      <c r="K14" s="262">
         <v>0</v>
       </c>
       <c r="L14" s="53">
         <v>0</v>
       </c>
       <c r="M14" s="54">
-        <f>$K$2+2*$P$2</f>
-        <v>590</v>
+        <f>$K$2+0.5*$P$2</f>
+        <v>560</v>
       </c>
       <c r="N14" s="77">
         <v>0</v>
@@ -3361,22 +3705,22 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="165"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="128"/>
       <c r="V14" s="41"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="117"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="115"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="36"/>
     </row>
     <row r="15" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="167" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="100">
@@ -3400,7 +3744,7 @@
       <c r="H15" s="101">
         <v>0</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="58">
         <f>F2</f>
         <v>8053</v>
       </c>
@@ -3408,7 +3752,7 @@
         <f>O2+G2</f>
         <v>420</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="252">
         <v>0</v>
       </c>
       <c r="L15" s="100">
@@ -3424,20 +3768,20 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="128"/>
       <c r="V15" s="41"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="117"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="115"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="114" t="s">
+      <c r="A16" s="201"/>
+      <c r="B16" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="107">
@@ -3461,7 +3805,7 @@
       <c r="H16" s="76">
         <v>0</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="30">
         <f>F2</f>
         <v>8053</v>
       </c>
@@ -3469,7 +3813,7 @@
         <f>G16+I2</f>
         <v>420</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="261">
         <v>0</v>
       </c>
       <c r="L16" s="50">
@@ -3485,20 +3829,20 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="165"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="128"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="117"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="115"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="114" t="s">
+      <c r="A17" s="201"/>
+      <c r="B17" s="112" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="107">
@@ -3523,13 +3867,13 @@
       <c r="H17" s="76">
         <v>0</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="76" t="s">
+      <c r="K17" s="250" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="50" t="s">
@@ -3545,147 +3889,147 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="41"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="152"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="107">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C18" s="103">
+        <v>0</v>
+      </c>
+      <c r="D18" s="56">
         <f>G2/2-L2/2+O2</f>
         <v>204</v>
       </c>
-      <c r="E18" s="106">
-        <v>0</v>
-      </c>
-      <c r="F18" s="50">
+      <c r="E18" s="104">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
         <f>F2</f>
         <v>8053</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="54">
         <f>G2/2-L2/2+O2</f>
         <v>204</v>
       </c>
-      <c r="H18" s="76">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50">
+      <c r="H18" s="77">
+        <v>0</v>
+      </c>
+      <c r="I18" s="60">
         <f>F2</f>
         <v>8053</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="54">
         <f>G2/2+L2/2+O2</f>
         <v>216</v>
       </c>
-      <c r="K18" s="106">
-        <v>0</v>
-      </c>
-      <c r="L18" s="50">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19">
+      <c r="K18" s="262">
+        <v>0</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0</v>
+      </c>
+      <c r="M18" s="54">
         <f>G2/2+L2/2+O2</f>
         <v>216</v>
       </c>
-      <c r="N18" s="106">
+      <c r="N18" s="104">
         <v>0</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="161"/>
+      <c r="S18" s="124"/>
       <c r="T18" s="15"/>
       <c r="U18" s="41"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="100">
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="253">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
-      <c r="E19" s="106">
-        <v>0</v>
-      </c>
-      <c r="F19" s="107">
+      <c r="E19" s="102">
+        <v>0</v>
+      </c>
+      <c r="F19" s="100">
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="253">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
-      <c r="H19" s="106">
-        <v>0</v>
-      </c>
-      <c r="I19" s="107">
+      <c r="H19" s="102">
+        <v>0</v>
+      </c>
+      <c r="I19" s="247">
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="253">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
-      <c r="K19" s="106">
-        <v>0</v>
-      </c>
-      <c r="L19" s="107">
+      <c r="K19" s="252">
+        <v>0</v>
+      </c>
+      <c r="L19" s="100">
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="M19" s="116">
+      <c r="M19" s="253">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
-      <c r="N19" s="106">
+      <c r="N19" s="102">
         <v>0</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="161"/>
+      <c r="S19" s="124"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="146"/>
-      <c r="B20" s="115" t="s">
+      <c r="A20" s="255"/>
+      <c r="B20" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="56">
-        <f>-2*$Q$2</f>
-        <v>-20</v>
+      <c r="C20" s="259">
+        <f>-0.5*$Q$2</f>
+        <v>-5</v>
       </c>
       <c r="D20" s="56">
         <v>0</v>
@@ -3693,9 +4037,9 @@
       <c r="E20" s="104">
         <v>0</v>
       </c>
-      <c r="F20" s="54">
-        <f>$J$2+2*$Q$2</f>
-        <v>32</v>
+      <c r="F20" s="53">
+        <f>$J$2+0.5*$Q$2</f>
+        <v>17</v>
       </c>
       <c r="G20" s="54">
         <v>0</v>
@@ -3703,42 +4047,42 @@
       <c r="H20" s="77">
         <v>0</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="76" t="s">
+      <c r="M20" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="77" t="s">
         <v>69</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="117"/>
+      <c r="S20" s="115"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="36"/>
     </row>
-    <row r="21" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145" t="s">
+    <row r="21" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="167" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="100">
@@ -3761,7 +4105,7 @@
       <c r="H21" s="101">
         <v>0</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="58">
         <f>$N$2+$I$2/2</f>
         <v>210</v>
       </c>
@@ -3769,7 +4113,7 @@
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="252">
         <v>0</v>
       </c>
       <c r="L21" s="100">
@@ -3792,11 +4136,11 @@
       <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="114" t="s">
+      <c r="A22" s="201"/>
+      <c r="B22" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="107">
         <f>$N$2-$G$2/2</f>
         <v>-210</v>
       </c>
@@ -3807,7 +4151,7 @@
       <c r="E22" s="106">
         <v>0</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="50">
         <f>$N$2+$G$2/2</f>
         <v>210</v>
       </c>
@@ -3818,7 +4162,7 @@
       <c r="H22" s="76">
         <v>0</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="30">
         <f>$N$2+$G$2/2</f>
         <v>210</v>
       </c>
@@ -3826,10 +4170,10 @@
         <f>K2</f>
         <v>550</v>
       </c>
-      <c r="K22" s="106">
-        <v>0</v>
-      </c>
-      <c r="L22" s="100">
+      <c r="K22" s="261">
+        <v>0</v>
+      </c>
+      <c r="L22" s="107">
         <f>$N$2-$G$2/2</f>
         <v>-210</v>
       </c>
@@ -3849,8 +4193,8 @@
       <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="201"/>
+      <c r="B23" s="112" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="107">
@@ -3875,13 +4219,13 @@
       <c r="H23" s="76">
         <v>0</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="30" t="s">
         <v>69</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="250" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="50" t="s">
@@ -3901,53 +4245,53 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="36"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="114" t="s">
+    <row r="24" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="201"/>
+      <c r="B24" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="103">
         <f>$N$2-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="56">
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="E24" s="106">
-        <v>0</v>
-      </c>
-      <c r="F24" s="107">
+      <c r="E24" s="104">
+        <v>0</v>
+      </c>
+      <c r="F24" s="103">
         <f>$N$2+$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="54">
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="H24" s="76">
-        <v>0</v>
-      </c>
-      <c r="I24" s="107">
+      <c r="H24" s="77">
+        <v>0</v>
+      </c>
+      <c r="I24" s="260">
         <f>$N$2+$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="54">
         <f>K2-H2</f>
         <v>538</v>
       </c>
-      <c r="K24" s="106">
-        <v>0</v>
-      </c>
-      <c r="L24" s="107">
+      <c r="K24" s="262">
+        <v>0</v>
+      </c>
+      <c r="L24" s="103">
         <f>$N$2-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="54">
         <f>K2-H2</f>
         <v>538</v>
       </c>
-      <c r="N24" s="106">
+      <c r="N24" s="104">
         <v>0</v>
       </c>
       <c r="O24" s="5"/>
@@ -3958,21 +4302,21 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="36"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="106"/>
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="201"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="239"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="15"/>
@@ -3981,19 +4325,19 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="36"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="152"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="116"/>
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="201"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="33"/>
       <c r="E26" s="106"/>
-      <c r="F26" s="116"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="33"/>
       <c r="H26" s="106"/>
-      <c r="I26" s="116"/>
+      <c r="I26" s="114"/>
       <c r="J26" s="33"/>
       <c r="K26" s="106"/>
-      <c r="L26" s="116"/>
+      <c r="L26" s="114"/>
       <c r="M26" s="33"/>
       <c r="N26" s="106"/>
       <c r="O26" s="5"/>
@@ -4004,21 +4348,21 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="36"/>
     </row>
-    <row r="27" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="152"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="106"/>
+    <row r="27" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="190"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="243"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="15"/>
@@ -4029,51 +4373,51 @@
     </row>
     <row r="28" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="178"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="264"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="264"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="141"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="178"/>
+      <c r="Q28" s="141"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="178"/>
+      <c r="S28" s="141"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="178"/>
+      <c r="U28" s="141"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="178"/>
+      <c r="W28" s="141"/>
       <c r="X28" s="5"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="149" t="s">
+      <c r="B29" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="151"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="195"/>
       <c r="O29" s="46"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
@@ -4082,42 +4426,42 @@
       <c r="AI29" s="36"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="132"/>
-      <c r="B30" s="145" t="s">
+      <c r="A30" s="176"/>
+      <c r="B30" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="142"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="186"/>
       <c r="O30" s="46"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="191" t="s">
+      <c r="R30" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="193"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="206"/>
     </row>
     <row r="31" spans="1:35" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="68" t="s">
         <v>74</v>
       </c>
@@ -4149,32 +4493,32 @@
         <v>39</v>
       </c>
       <c r="N31" s="64" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="O31" s="47"/>
       <c r="P31" s="1"/>
-      <c r="R31" s="188" t="s">
+      <c r="R31" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="S31" s="187" t="s">
+      <c r="S31" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="185" t="s">
+      <c r="T31" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="186"/>
+      <c r="U31" s="203"/>
       <c r="V31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="W31" s="190" t="s">
+      <c r="W31" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="189" t="s">
+      <c r="X31" s="150" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="65" t="s">
         <v>72</v>
       </c>
@@ -4203,28 +4547,28 @@
       <c r="O32" s="34"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
-      <c r="R32" s="179" t="str">
+      <c r="R32" s="142" t="str">
         <f>$D$2</f>
         <v>Р-3</v>
       </c>
-      <c r="S32" s="194" t="s">
+      <c r="S32" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="T32" s="179" t="s">
+      <c r="T32" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="U32" s="194" t="str">
+      <c r="U32" s="152" t="str">
         <f>$L$2&amp;"x"&amp;$K$2-$H$2-$J$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2</f>
         <v>12x526x8053 ГОСТ 19903-2015</v>
       </c>
-      <c r="V32" s="195">
+      <c r="V32" s="153">
         <v>1</v>
       </c>
-      <c r="W32" s="196">
+      <c r="W32" s="154">
         <f>ROUND($L$2*($K$2-$J$2-$H$2)*$F$2*$U$2*10^-9,3)</f>
         <v>399.02</v>
       </c>
-      <c r="X32" s="197">
+      <c r="X32" s="155">
         <f>$V$32*$W$32+$V$34*$W$34+$V$36*$W$36</f>
         <v>1036.2379999999998</v>
       </c>
@@ -4240,7 +4584,7 @@
       <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="132"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="66" t="s">
         <v>50</v>
       </c>
@@ -4269,16 +4613,16 @@
       <c r="O33" s="34"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="180"/>
-      <c r="U33" s="198" t="str">
+      <c r="R33" s="144"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="156" t="str">
         <f>IF($L$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2</f>
         <v>10ХСНД ГОСТ Р 55374-2012</v>
       </c>
-      <c r="V33" s="199"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="200"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="158"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -4291,7 +4635,7 @@
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="66" t="s">
         <v>42</v>
       </c>
@@ -4316,29 +4660,29 @@
       <c r="O34" s="34"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="37"/>
-      <c r="R34" s="181"/>
-      <c r="S34" s="198" t="s">
+      <c r="R34" s="144"/>
+      <c r="S34" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="180" t="s">
+      <c r="T34" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="U34" s="198" t="str">
+      <c r="U34" s="156" t="str">
         <f>$H$2&amp;"x"&amp;$G$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2</f>
         <v>12x420x8053 ГОСТ 19903-2015</v>
       </c>
-      <c r="V34" s="199">
+      <c r="V34" s="157">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),2,1)</f>
         <v>2</v>
       </c>
-      <c r="W34" s="201">
+      <c r="W34" s="159">
         <f>ROUND($H$2*$G$2*$F$2*$U$2*10^-9,3)</f>
         <v>318.60899999999998</v>
       </c>
-      <c r="X34" s="200"/>
+      <c r="X34" s="158"/>
     </row>
     <row r="35" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="132"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="66" t="s">
         <v>43</v>
       </c>
@@ -4363,19 +4707,19 @@
       <c r="O35" s="34"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="37"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="198" t="str">
+      <c r="R35" s="144"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="156" t="str">
         <f>IF($H$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2</f>
         <v>10ХСНД ГОСТ Р 55374-2012</v>
       </c>
-      <c r="V35" s="199"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="200"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="159"/>
+      <c r="X35" s="158"/>
     </row>
     <row r="36" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="132"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="66" t="s">
         <v>44</v>
       </c>
@@ -4394,30 +4738,30 @@
       <c r="O36" s="34"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="37"/>
-      <c r="R36" s="181"/>
-      <c r="S36" s="198">
+      <c r="R36" s="144"/>
+      <c r="S36" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,3)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="181" t="s">
+      <c r="T36" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="U36" s="198">
+      <c r="U36" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2), ,$J$2&amp;"x"&amp;$I$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="199">
+      <c r="V36" s="157">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,1)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="201">
+      <c r="W36" s="159">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,ROUND($J$2*I23*$F$2*$U$2*10^-9,3))</f>
         <v>0</v>
       </c>
-      <c r="X36" s="200"/>
+      <c r="X36" s="158"/>
     </row>
     <row r="37" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="132"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="66" t="s">
         <v>45</v>
       </c>
@@ -4435,19 +4779,19 @@
       <c r="N37" s="51"/>
       <c r="O37" s="34"/>
       <c r="P37" s="1"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="198"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="198">
+      <c r="R37" s="144"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,IF($J$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="199"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="200"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="159"/>
+      <c r="X37" s="158"/>
     </row>
     <row r="38" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="133"/>
+      <c r="A38" s="177"/>
       <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
@@ -4467,15 +4811,15 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="29"/>
-      <c r="S38" s="202">
-        <v>0</v>
-      </c>
-      <c r="T38" s="199"/>
-      <c r="U38" s="203"/>
-      <c r="V38" s="199">
-        <v>0</v>
-      </c>
-      <c r="W38" s="202">
+      <c r="S38" s="160">
+        <v>0</v>
+      </c>
+      <c r="T38" s="157"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="157">
+        <v>0</v>
+      </c>
+      <c r="W38" s="160">
         <v>0</v>
       </c>
       <c r="X38" s="29"/>
@@ -4499,18 +4843,18 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="31"/>
-      <c r="S39" s="204">
-        <v>0</v>
-      </c>
-      <c r="T39" s="182"/>
-      <c r="U39" s="205"/>
-      <c r="V39" s="182">
-        <v>0</v>
-      </c>
-      <c r="W39" s="204">
-        <v>0</v>
-      </c>
-      <c r="X39" s="184"/>
+      <c r="S39" s="162">
+        <v>0</v>
+      </c>
+      <c r="T39" s="145"/>
+      <c r="U39" s="163"/>
+      <c r="V39" s="145">
+        <v>0</v>
+      </c>
+      <c r="W39" s="162">
+        <v>0</v>
+      </c>
+      <c r="X39" s="147"/>
     </row>
     <row r="40" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="98"/>
@@ -4550,7 +4894,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="172" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -4566,59 +4910,59 @@
       <c r="E41" s="94">
         <v>0</v>
       </c>
-      <c r="F41" s="125" t="s">
+      <c r="F41" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="125" t="s">
+      <c r="G41" s="170"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="126"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="125" t="s">
+      <c r="J41" s="170"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="126"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="125" t="s">
+      <c r="M41" s="170"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="125" t="s">
+      <c r="P41" s="170"/>
+      <c r="Q41" s="171"/>
+      <c r="R41" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="125" t="s">
+      <c r="S41" s="170"/>
+      <c r="T41" s="171"/>
+      <c r="U41" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V41" s="126"/>
-      <c r="W41" s="127"/>
-      <c r="X41" s="125" t="s">
+      <c r="V41" s="170"/>
+      <c r="W41" s="171"/>
+      <c r="X41" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="126"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="125" t="s">
+      <c r="Y41" s="170"/>
+      <c r="Z41" s="171"/>
+      <c r="AA41" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="125" t="s">
+      <c r="AB41" s="170"/>
+      <c r="AC41" s="171"/>
+      <c r="AD41" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="125" t="s">
+      <c r="AE41" s="170"/>
+      <c r="AF41" s="171"/>
+      <c r="AG41" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH41" s="126"/>
-      <c r="AI41" s="127"/>
+      <c r="AH41" s="170"/>
+      <c r="AI41" s="171"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="129"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="79" t="s">
         <v>12</v>
       </c>
@@ -4723,7 +5067,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="153"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="26" t="s">
         <v>58</v>
       </c>
@@ -4850,7 +5194,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="29" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +5321,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="29" t="s">
         <v>14</v>
       </c>
@@ -5104,7 +5448,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="29" t="s">
         <v>15</v>
       </c>
@@ -5231,7 +5575,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="29" t="s">
         <v>16</v>
       </c>
@@ -5358,7 +5702,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -5485,7 +5829,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="154"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="31" t="s">
         <v>18</v>
       </c>
@@ -5649,24 +5993,24 @@
       <c r="AI50" s="15"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="136"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="179"/>
+      <c r="N51" s="180"/>
       <c r="O51" s="46"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="1"/>
@@ -5675,33 +6019,48 @@
       <c r="AI51" s="36"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="132"/>
-      <c r="B52" s="145" t="s">
+      <c r="A52" s="176"/>
+      <c r="B52" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="139" t="s">
+      <c r="C52" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="141" t="s">
+      <c r="D52" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="142"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="185"/>
+      <c r="K52" s="185"/>
+      <c r="L52" s="185"/>
+      <c r="M52" s="185"/>
+      <c r="N52" s="186"/>
       <c r="O52" s="46"/>
       <c r="P52" s="1"/>
+      <c r="R52" s="213"/>
+      <c r="S52" s="213"/>
+      <c r="T52" s="214"/>
+      <c r="U52" s="223" t="s">
+        <v>120</v>
+      </c>
+      <c r="V52" s="215" t="s">
+        <v>124</v>
+      </c>
+      <c r="W52" s="231">
+        <v>20</v>
+      </c>
+      <c r="X52" s="35" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:35" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="132"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="140"/>
+      <c r="A53" s="176"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="68" t="s">
         <v>74</v>
       </c>
@@ -5737,9 +6096,19 @@
       </c>
       <c r="O53" s="47"/>
       <c r="P53" s="1"/>
+      <c r="R53" s="216"/>
+      <c r="S53" s="216"/>
+      <c r="T53" s="211"/>
+      <c r="U53" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="V53" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="W53" s="217"/>
     </row>
     <row r="54" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="132"/>
+      <c r="A54" s="176"/>
       <c r="B54" s="65" t="s">
         <v>49</v>
       </c>
@@ -5768,13 +6137,18 @@
       <c r="O54" s="34"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
+      <c r="R54" s="218"/>
+      <c r="S54" s="234" t="s">
+        <v>112</v>
+      </c>
+      <c r="T54" s="235" t="s">
+        <v>116</v>
+      </c>
+      <c r="U54" s="224" t="s">
+        <v>121</v>
+      </c>
+      <c r="V54" s="212"/>
+      <c r="W54" s="217"/>
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
       <c r="AA54" s="18"/>
@@ -5787,7 +6161,7 @@
       <c r="AH54" s="18"/>
     </row>
     <row r="55" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="132"/>
+      <c r="A55" s="176"/>
       <c r="B55" s="66" t="s">
         <v>50</v>
       </c>
@@ -5816,13 +6190,21 @@
       <c r="O55" s="34"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
+      <c r="R55" s="219"/>
+      <c r="S55" s="219" t="s">
+        <v>113</v>
+      </c>
+      <c r="T55" s="235" t="s">
+        <v>117</v>
+      </c>
+      <c r="U55" s="225"/>
+      <c r="V55" s="212"/>
+      <c r="W55" s="233">
+        <v>18</v>
+      </c>
+      <c r="X55" s="35" t="s">
+        <v>127</v>
+      </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
@@ -5835,7 +6217,7 @@
       <c r="AH55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="132"/>
+      <c r="A56" s="176"/>
       <c r="B56" s="66" t="s">
         <v>42</v>
       </c>
@@ -5864,13 +6246,20 @@
       <c r="O56" s="34"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
+      <c r="R56" s="219"/>
+      <c r="S56" s="219" t="s">
+        <v>114</v>
+      </c>
+      <c r="T56" s="235" t="s">
+        <v>118</v>
+      </c>
+      <c r="U56" s="226"/>
+      <c r="V56" s="212"/>
+      <c r="W56" s="220"/>
+      <c r="X56" s="36"/>
     </row>
     <row r="57" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="132"/>
+      <c r="A57" s="176"/>
       <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
@@ -5899,13 +6288,16 @@
       <c r="O57" s="34"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="132"/>
+      <c r="R57" s="219"/>
+      <c r="S57" s="219"/>
+      <c r="T57" s="235"/>
+      <c r="U57" s="227"/>
+      <c r="V57" s="212"/>
+      <c r="W57" s="217"/>
+      <c r="X57" s="115"/>
+    </row>
+    <row r="58" spans="1:35" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="176"/>
       <c r="B58" s="66" t="s">
         <v>44</v>
       </c>
@@ -5924,13 +6316,25 @@
       <c r="O58" s="34"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
+      <c r="R58" s="221"/>
+      <c r="S58" s="221" t="s">
+        <v>115</v>
+      </c>
+      <c r="T58" s="236" t="s">
+        <v>119</v>
+      </c>
+      <c r="U58" s="228" t="str">
+        <f>"Конструкция "&amp;$C$2&amp;"а "&amp;$D$2</f>
+        <v>Конструкция раскоса Р-3</v>
+      </c>
+      <c r="V58" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="W58" s="222"/>
+      <c r="X58" s="115"/>
     </row>
     <row r="59" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="132"/>
+      <c r="A59" s="176"/>
       <c r="B59" s="66" t="s">
         <v>45</v>
       </c>
@@ -5953,7 +6357,7 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="133"/>
+      <c r="A60" s="177"/>
       <c r="B60" s="67" t="s">
         <v>46</v>
       </c>
@@ -6038,7 +6442,7 @@
       <c r="AI62" s="22"/>
     </row>
     <row r="63" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="172" t="s">
         <v>52</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -6055,59 +6459,59 @@
       <c r="E63" s="91">
         <v>0</v>
       </c>
-      <c r="F63" s="125" t="s">
+      <c r="F63" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="126"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="125" t="s">
+      <c r="G63" s="170"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="126"/>
-      <c r="K63" s="127"/>
-      <c r="L63" s="125" t="s">
+      <c r="J63" s="170"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M63" s="126"/>
-      <c r="N63" s="127"/>
-      <c r="O63" s="125" t="s">
+      <c r="M63" s="170"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="125" t="s">
+      <c r="P63" s="170"/>
+      <c r="Q63" s="171"/>
+      <c r="R63" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S63" s="126"/>
-      <c r="T63" s="127"/>
-      <c r="U63" s="125" t="s">
+      <c r="S63" s="170"/>
+      <c r="T63" s="171"/>
+      <c r="U63" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V63" s="126"/>
-      <c r="W63" s="127"/>
-      <c r="X63" s="125" t="s">
+      <c r="V63" s="170"/>
+      <c r="W63" s="171"/>
+      <c r="X63" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y63" s="126"/>
-      <c r="Z63" s="127"/>
-      <c r="AA63" s="125" t="s">
+      <c r="Y63" s="170"/>
+      <c r="Z63" s="171"/>
+      <c r="AA63" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB63" s="126"/>
-      <c r="AC63" s="127"/>
-      <c r="AD63" s="125" t="s">
+      <c r="AB63" s="170"/>
+      <c r="AC63" s="171"/>
+      <c r="AD63" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE63" s="126"/>
-      <c r="AF63" s="127"/>
-      <c r="AG63" s="125" t="s">
+      <c r="AE63" s="170"/>
+      <c r="AF63" s="171"/>
+      <c r="AG63" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH63" s="126"/>
-      <c r="AI63" s="127"/>
+      <c r="AH63" s="170"/>
+      <c r="AI63" s="171"/>
     </row>
     <row r="64" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="129"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="72" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6616,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A65" s="129"/>
+      <c r="A65" s="173"/>
       <c r="B65" s="26" t="s">
         <v>58</v>
       </c>
@@ -6339,7 +6743,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A66" s="129"/>
+      <c r="A66" s="173"/>
       <c r="B66" s="29" t="s">
         <v>13</v>
       </c>
@@ -6466,7 +6870,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A67" s="129"/>
+      <c r="A67" s="173"/>
       <c r="B67" s="29" t="s">
         <v>14</v>
       </c>
@@ -6593,7 +6997,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
+      <c r="A68" s="173"/>
       <c r="B68" s="29" t="s">
         <v>15</v>
       </c>
@@ -6720,7 +7124,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
+      <c r="A69" s="173"/>
       <c r="B69" s="29" t="s">
         <v>16</v>
       </c>
@@ -6847,7 +7251,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
+      <c r="A70" s="173"/>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
@@ -6974,7 +7378,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="130"/>
+      <c r="A71" s="174"/>
       <c r="B71" s="31" t="s">
         <v>18</v>
       </c>
@@ -7138,24 +7542,24 @@
       <c r="AI72" s="15"/>
     </row>
     <row r="73" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="134" t="s">
+      <c r="B73" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="136"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="179"/>
+      <c r="M73" s="179"/>
+      <c r="N73" s="180"/>
       <c r="O73" s="46"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="1"/>
@@ -7164,33 +7568,33 @@
       <c r="AI73" s="36"/>
     </row>
     <row r="74" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="132"/>
-      <c r="B74" s="137" t="s">
+      <c r="A74" s="176"/>
+      <c r="B74" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="139" t="s">
+      <c r="C74" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="141" t="s">
+      <c r="D74" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="142"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="185"/>
+      <c r="M74" s="185"/>
+      <c r="N74" s="186"/>
       <c r="O74" s="46"/>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:35" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="132"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="140"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="182"/>
+      <c r="C75" s="184"/>
       <c r="D75" s="68" t="s">
         <v>74</v>
       </c>
@@ -7228,7 +7632,7 @@
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="132"/>
+      <c r="A76" s="176"/>
       <c r="B76" s="65" t="s">
         <v>49</v>
       </c>
@@ -7276,7 +7680,7 @@
       <c r="AH76" s="18"/>
     </row>
     <row r="77" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="132"/>
+      <c r="A77" s="176"/>
       <c r="B77" s="66" t="s">
         <v>50</v>
       </c>
@@ -7324,7 +7728,7 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="132"/>
+      <c r="A78" s="176"/>
       <c r="B78" s="66" t="s">
         <v>42</v>
       </c>
@@ -7355,7 +7759,7 @@
       <c r="U78" s="1"/>
     </row>
     <row r="79" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="132"/>
+      <c r="A79" s="176"/>
       <c r="B79" s="66" t="s">
         <v>43</v>
       </c>
@@ -7386,7 +7790,7 @@
       <c r="U79" s="1"/>
     </row>
     <row r="80" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="132"/>
+      <c r="A80" s="176"/>
       <c r="B80" s="66" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7815,7 @@
       <c r="U80" s="1"/>
     </row>
     <row r="81" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="132"/>
+      <c r="A81" s="176"/>
       <c r="B81" s="66" t="s">
         <v>45</v>
       </c>
@@ -7434,7 +7838,7 @@
       <c r="U81" s="1"/>
     </row>
     <row r="82" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="133"/>
+      <c r="A82" s="177"/>
       <c r="B82" s="67" t="s">
         <v>46</v>
       </c>
@@ -7519,7 +7923,7 @@
       <c r="AI84" s="22"/>
     </row>
     <row r="85" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="128" t="s">
+      <c r="A85" s="172" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="24" t="s">
@@ -7536,59 +7940,59 @@
       <c r="E85" s="94">
         <v>0</v>
       </c>
-      <c r="F85" s="125" t="s">
+      <c r="F85" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="126"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="125" t="s">
+      <c r="G85" s="170"/>
+      <c r="H85" s="171"/>
+      <c r="I85" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="126"/>
-      <c r="K85" s="127"/>
-      <c r="L85" s="125" t="s">
+      <c r="J85" s="170"/>
+      <c r="K85" s="171"/>
+      <c r="L85" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M85" s="126"/>
-      <c r="N85" s="127"/>
-      <c r="O85" s="125" t="s">
+      <c r="M85" s="170"/>
+      <c r="N85" s="171"/>
+      <c r="O85" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P85" s="126"/>
-      <c r="Q85" s="127"/>
-      <c r="R85" s="125" t="s">
+      <c r="P85" s="170"/>
+      <c r="Q85" s="171"/>
+      <c r="R85" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S85" s="126"/>
-      <c r="T85" s="127"/>
-      <c r="U85" s="125" t="s">
+      <c r="S85" s="170"/>
+      <c r="T85" s="171"/>
+      <c r="U85" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="126"/>
-      <c r="W85" s="127"/>
-      <c r="X85" s="125" t="s">
+      <c r="V85" s="170"/>
+      <c r="W85" s="171"/>
+      <c r="X85" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y85" s="126"/>
-      <c r="Z85" s="127"/>
-      <c r="AA85" s="125" t="s">
+      <c r="Y85" s="170"/>
+      <c r="Z85" s="171"/>
+      <c r="AA85" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB85" s="126"/>
-      <c r="AC85" s="127"/>
-      <c r="AD85" s="125" t="s">
+      <c r="AB85" s="170"/>
+      <c r="AC85" s="171"/>
+      <c r="AD85" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE85" s="126"/>
-      <c r="AF85" s="127"/>
-      <c r="AG85" s="125" t="s">
+      <c r="AE85" s="170"/>
+      <c r="AF85" s="171"/>
+      <c r="AG85" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH85" s="126"/>
-      <c r="AI85" s="127"/>
+      <c r="AH85" s="170"/>
+      <c r="AI85" s="171"/>
     </row>
     <row r="86" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="129"/>
+      <c r="A86" s="173"/>
       <c r="B86" s="72" t="s">
         <v>12</v>
       </c>
@@ -7693,7 +8097,7 @@
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A87" s="129"/>
+      <c r="A87" s="173"/>
       <c r="B87" s="26" t="s">
         <v>58</v>
       </c>
@@ -7820,7 +8224,7 @@
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A88" s="129"/>
+      <c r="A88" s="173"/>
       <c r="B88" s="29" t="s">
         <v>13</v>
       </c>
@@ -7947,7 +8351,7 @@
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A89" s="129"/>
+      <c r="A89" s="173"/>
       <c r="B89" s="29" t="s">
         <v>14</v>
       </c>
@@ -8074,7 +8478,7 @@
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A90" s="129"/>
+      <c r="A90" s="173"/>
       <c r="B90" s="29" t="s">
         <v>15</v>
       </c>
@@ -8201,7 +8605,7 @@
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A91" s="129"/>
+      <c r="A91" s="173"/>
       <c r="B91" s="29" t="s">
         <v>16</v>
       </c>
@@ -8328,7 +8732,7 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A92" s="129"/>
+      <c r="A92" s="173"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8859,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="130"/>
+      <c r="A93" s="174"/>
       <c r="B93" s="31" t="s">
         <v>18</v>
       </c>
@@ -8583,24 +8987,24 @@
     </row>
     <row r="94" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="131" t="s">
+      <c r="A95" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="134" t="s">
+      <c r="B95" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="135"/>
-      <c r="D95" s="135"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="135"/>
-      <c r="K95" s="135"/>
-      <c r="L95" s="135"/>
-      <c r="M95" s="135"/>
-      <c r="N95" s="136"/>
+      <c r="C95" s="179"/>
+      <c r="D95" s="179"/>
+      <c r="E95" s="179"/>
+      <c r="F95" s="179"/>
+      <c r="G95" s="179"/>
+      <c r="H95" s="179"/>
+      <c r="I95" s="179"/>
+      <c r="J95" s="179"/>
+      <c r="K95" s="179"/>
+      <c r="L95" s="179"/>
+      <c r="M95" s="179"/>
+      <c r="N95" s="180"/>
       <c r="O95" s="46"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="1"/>
@@ -8609,33 +9013,33 @@
       <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="132"/>
-      <c r="B96" s="137" t="s">
+      <c r="A96" s="176"/>
+      <c r="B96" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="139" t="s">
+      <c r="C96" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="141" t="s">
+      <c r="D96" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="141"/>
-      <c r="F96" s="141"/>
-      <c r="G96" s="141"/>
-      <c r="H96" s="141"/>
-      <c r="I96" s="141"/>
-      <c r="J96" s="141"/>
-      <c r="K96" s="141"/>
-      <c r="L96" s="141"/>
-      <c r="M96" s="141"/>
-      <c r="N96" s="142"/>
+      <c r="E96" s="185"/>
+      <c r="F96" s="185"/>
+      <c r="G96" s="185"/>
+      <c r="H96" s="185"/>
+      <c r="I96" s="185"/>
+      <c r="J96" s="185"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
+      <c r="N96" s="186"/>
       <c r="O96" s="46"/>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="132"/>
-      <c r="B97" s="138"/>
-      <c r="C97" s="140"/>
+      <c r="A97" s="176"/>
+      <c r="B97" s="182"/>
+      <c r="C97" s="184"/>
       <c r="D97" s="68" t="s">
         <v>74</v>
       </c>
@@ -8673,7 +9077,7 @@
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="132"/>
+      <c r="A98" s="176"/>
       <c r="B98" s="65" t="s">
         <v>49</v>
       </c>
@@ -8725,7 +9129,7 @@
       <c r="AH98" s="18"/>
     </row>
     <row r="99" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="132"/>
+      <c r="A99" s="176"/>
       <c r="B99" s="66" t="s">
         <v>50</v>
       </c>
@@ -8777,7 +9181,7 @@
       <c r="AH99" s="1"/>
     </row>
     <row r="100" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="132"/>
+      <c r="A100" s="176"/>
       <c r="B100" s="66" t="s">
         <v>42</v>
       </c>
@@ -8816,7 +9220,7 @@
       <c r="U100" s="1"/>
     </row>
     <row r="101" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="132"/>
+      <c r="A101" s="176"/>
       <c r="B101" s="66" t="s">
         <v>43</v>
       </c>
@@ -8855,7 +9259,7 @@
       <c r="U101" s="1"/>
     </row>
     <row r="102" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="132"/>
+      <c r="A102" s="176"/>
       <c r="B102" s="66" t="s">
         <v>44</v>
       </c>
@@ -8880,7 +9284,7 @@
       <c r="U102" s="1"/>
     </row>
     <row r="103" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A103" s="132"/>
+      <c r="A103" s="176"/>
       <c r="B103" s="66" t="s">
         <v>45</v>
       </c>
@@ -8903,7 +9307,7 @@
       <c r="U103" s="1"/>
     </row>
     <row r="104" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="133"/>
+      <c r="A104" s="177"/>
       <c r="B104" s="67" t="s">
         <v>46</v>
       </c>
@@ -8988,7 +9392,7 @@
       <c r="AI106" s="22"/>
     </row>
     <row r="107" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="128" t="s">
+      <c r="A107" s="172" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -9003,59 +9407,59 @@
       <c r="E107" s="94">
         <v>0</v>
       </c>
-      <c r="F107" s="125" t="s">
+      <c r="F107" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="126"/>
-      <c r="H107" s="127"/>
-      <c r="I107" s="125" t="s">
+      <c r="G107" s="170"/>
+      <c r="H107" s="171"/>
+      <c r="I107" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J107" s="126"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="125" t="s">
+      <c r="J107" s="170"/>
+      <c r="K107" s="171"/>
+      <c r="L107" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M107" s="126"/>
-      <c r="N107" s="127"/>
-      <c r="O107" s="125" t="s">
+      <c r="M107" s="170"/>
+      <c r="N107" s="171"/>
+      <c r="O107" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P107" s="126"/>
-      <c r="Q107" s="127"/>
-      <c r="R107" s="125" t="s">
+      <c r="P107" s="170"/>
+      <c r="Q107" s="171"/>
+      <c r="R107" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S107" s="126"/>
-      <c r="T107" s="127"/>
-      <c r="U107" s="125" t="s">
+      <c r="S107" s="170"/>
+      <c r="T107" s="171"/>
+      <c r="U107" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V107" s="126"/>
-      <c r="W107" s="127"/>
-      <c r="X107" s="125" t="s">
+      <c r="V107" s="170"/>
+      <c r="W107" s="171"/>
+      <c r="X107" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y107" s="126"/>
-      <c r="Z107" s="127"/>
-      <c r="AA107" s="125" t="s">
+      <c r="Y107" s="170"/>
+      <c r="Z107" s="171"/>
+      <c r="AA107" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB107" s="126"/>
-      <c r="AC107" s="127"/>
-      <c r="AD107" s="125" t="s">
+      <c r="AB107" s="170"/>
+      <c r="AC107" s="171"/>
+      <c r="AD107" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE107" s="126"/>
-      <c r="AF107" s="127"/>
-      <c r="AG107" s="125" t="s">
+      <c r="AE107" s="170"/>
+      <c r="AF107" s="171"/>
+      <c r="AG107" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH107" s="126"/>
-      <c r="AI107" s="127"/>
+      <c r="AH107" s="170"/>
+      <c r="AI107" s="171"/>
     </row>
     <row r="108" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="129"/>
+      <c r="A108" s="173"/>
       <c r="B108" s="72" t="s">
         <v>70</v>
       </c>
@@ -9160,7 +9564,7 @@
       </c>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A109" s="129"/>
+      <c r="A109" s="173"/>
       <c r="B109" s="26" t="s">
         <v>58</v>
       </c>
@@ -9287,7 +9691,7 @@
       </c>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A110" s="129"/>
+      <c r="A110" s="173"/>
       <c r="B110" s="29" t="s">
         <v>13</v>
       </c>
@@ -9414,7 +9818,7 @@
       </c>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A111" s="129"/>
+      <c r="A111" s="173"/>
       <c r="B111" s="29" t="s">
         <v>14</v>
       </c>
@@ -9541,7 +9945,7 @@
       </c>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A112" s="129"/>
+      <c r="A112" s="173"/>
       <c r="B112" s="29" t="s">
         <v>15</v>
       </c>
@@ -9668,7 +10072,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A113" s="129"/>
+      <c r="A113" s="173"/>
       <c r="B113" s="29" t="s">
         <v>16</v>
       </c>
@@ -9795,7 +10199,7 @@
       </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A114" s="129"/>
+      <c r="A114" s="173"/>
       <c r="B114" s="29" t="s">
         <v>17</v>
       </c>
@@ -9922,7 +10326,7 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="130"/>
+      <c r="A115" s="174"/>
       <c r="B115" s="31" t="s">
         <v>18</v>
       </c>
@@ -10050,24 +10454,24 @@
     </row>
     <row r="116" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="131" t="s">
+      <c r="A117" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="134" t="s">
+      <c r="B117" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
-      <c r="E117" s="135"/>
-      <c r="F117" s="135"/>
-      <c r="G117" s="135"/>
-      <c r="H117" s="135"/>
-      <c r="I117" s="135"/>
-      <c r="J117" s="135"/>
-      <c r="K117" s="135"/>
-      <c r="L117" s="135"/>
-      <c r="M117" s="135"/>
-      <c r="N117" s="136"/>
+      <c r="C117" s="179"/>
+      <c r="D117" s="179"/>
+      <c r="E117" s="179"/>
+      <c r="F117" s="179"/>
+      <c r="G117" s="179"/>
+      <c r="H117" s="179"/>
+      <c r="I117" s="179"/>
+      <c r="J117" s="179"/>
+      <c r="K117" s="179"/>
+      <c r="L117" s="179"/>
+      <c r="M117" s="179"/>
+      <c r="N117" s="180"/>
       <c r="O117" s="46"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="1"/>
@@ -10076,33 +10480,33 @@
       <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="132"/>
-      <c r="B118" s="137" t="s">
+      <c r="A118" s="176"/>
+      <c r="B118" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="139" t="s">
+      <c r="C118" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="141" t="s">
+      <c r="D118" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="141"/>
-      <c r="F118" s="141"/>
-      <c r="G118" s="141"/>
-      <c r="H118" s="141"/>
-      <c r="I118" s="141"/>
-      <c r="J118" s="141"/>
-      <c r="K118" s="141"/>
-      <c r="L118" s="141"/>
-      <c r="M118" s="141"/>
-      <c r="N118" s="142"/>
+      <c r="E118" s="185"/>
+      <c r="F118" s="185"/>
+      <c r="G118" s="185"/>
+      <c r="H118" s="185"/>
+      <c r="I118" s="185"/>
+      <c r="J118" s="185"/>
+      <c r="K118" s="185"/>
+      <c r="L118" s="185"/>
+      <c r="M118" s="185"/>
+      <c r="N118" s="186"/>
       <c r="O118" s="46"/>
       <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:35" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="132"/>
-      <c r="B119" s="138"/>
-      <c r="C119" s="140"/>
+      <c r="A119" s="176"/>
+      <c r="B119" s="182"/>
+      <c r="C119" s="184"/>
       <c r="D119" s="68" t="s">
         <v>74</v>
       </c>
@@ -10140,7 +10544,7 @@
       <c r="P119" s="1"/>
     </row>
     <row r="120" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="132"/>
+      <c r="A120" s="176"/>
       <c r="B120" s="65" t="s">
         <v>49</v>
       </c>
@@ -10192,7 +10596,7 @@
       <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A121" s="132"/>
+      <c r="A121" s="176"/>
       <c r="B121" s="66" t="s">
         <v>50</v>
       </c>
@@ -10244,7 +10648,7 @@
       <c r="AH121" s="1"/>
     </row>
     <row r="122" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="132"/>
+      <c r="A122" s="176"/>
       <c r="B122" s="66" t="s">
         <v>42</v>
       </c>
@@ -10283,7 +10687,7 @@
       <c r="U122" s="1"/>
     </row>
     <row r="123" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" s="132"/>
+      <c r="A123" s="176"/>
       <c r="B123" s="66" t="s">
         <v>43</v>
       </c>
@@ -10322,7 +10726,7 @@
       <c r="U123" s="1"/>
     </row>
     <row r="124" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A124" s="132"/>
+      <c r="A124" s="176"/>
       <c r="B124" s="66" t="s">
         <v>44</v>
       </c>
@@ -10347,7 +10751,7 @@
       <c r="U124" s="1"/>
     </row>
     <row r="125" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A125" s="132"/>
+      <c r="A125" s="176"/>
       <c r="B125" s="66" t="s">
         <v>45</v>
       </c>
@@ -10370,7 +10774,7 @@
       <c r="U125" s="1"/>
     </row>
     <row r="126" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="133"/>
+      <c r="A126" s="177"/>
       <c r="B126" s="67" t="s">
         <v>46</v>
       </c>
@@ -10455,7 +10859,7 @@
       <c r="AI128" s="22"/>
     </row>
     <row r="129" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="128" t="s">
+      <c r="A129" s="172" t="s">
         <v>54</v>
       </c>
       <c r="B129" s="24" t="s">
@@ -10471,59 +10875,59 @@
       <c r="E129" s="94">
         <v>0</v>
       </c>
-      <c r="F129" s="125" t="s">
+      <c r="F129" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="126"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="125" t="s">
+      <c r="G129" s="170"/>
+      <c r="H129" s="171"/>
+      <c r="I129" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J129" s="126"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="125" t="s">
+      <c r="J129" s="170"/>
+      <c r="K129" s="171"/>
+      <c r="L129" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M129" s="126"/>
-      <c r="N129" s="127"/>
-      <c r="O129" s="125" t="s">
+      <c r="M129" s="170"/>
+      <c r="N129" s="171"/>
+      <c r="O129" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P129" s="126"/>
-      <c r="Q129" s="127"/>
-      <c r="R129" s="125" t="s">
+      <c r="P129" s="170"/>
+      <c r="Q129" s="171"/>
+      <c r="R129" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S129" s="126"/>
-      <c r="T129" s="127"/>
-      <c r="U129" s="125" t="s">
+      <c r="S129" s="170"/>
+      <c r="T129" s="171"/>
+      <c r="U129" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V129" s="126"/>
-      <c r="W129" s="127"/>
-      <c r="X129" s="125" t="s">
+      <c r="V129" s="170"/>
+      <c r="W129" s="171"/>
+      <c r="X129" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y129" s="126"/>
-      <c r="Z129" s="127"/>
-      <c r="AA129" s="125" t="s">
+      <c r="Y129" s="170"/>
+      <c r="Z129" s="171"/>
+      <c r="AA129" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB129" s="126"/>
-      <c r="AC129" s="127"/>
-      <c r="AD129" s="125" t="s">
+      <c r="AB129" s="170"/>
+      <c r="AC129" s="171"/>
+      <c r="AD129" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE129" s="126"/>
-      <c r="AF129" s="127"/>
-      <c r="AG129" s="125" t="s">
+      <c r="AE129" s="170"/>
+      <c r="AF129" s="171"/>
+      <c r="AG129" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH129" s="126"/>
-      <c r="AI129" s="127"/>
+      <c r="AH129" s="170"/>
+      <c r="AI129" s="171"/>
     </row>
     <row r="130" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="129"/>
+      <c r="A130" s="173"/>
       <c r="B130" s="72" t="s">
         <v>12</v>
       </c>
@@ -10628,7 +11032,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A131" s="129"/>
+      <c r="A131" s="173"/>
       <c r="B131" s="26" t="s">
         <v>58</v>
       </c>
@@ -10755,7 +11159,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A132" s="129"/>
+      <c r="A132" s="173"/>
       <c r="B132" s="29" t="s">
         <v>13</v>
       </c>
@@ -10882,7 +11286,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A133" s="129"/>
+      <c r="A133" s="173"/>
       <c r="B133" s="29" t="s">
         <v>14</v>
       </c>
@@ -11009,7 +11413,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A134" s="129"/>
+      <c r="A134" s="173"/>
       <c r="B134" s="29" t="s">
         <v>15</v>
       </c>
@@ -11136,7 +11540,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A135" s="129"/>
+      <c r="A135" s="173"/>
       <c r="B135" s="29" t="s">
         <v>16</v>
       </c>
@@ -11263,7 +11667,7 @@
       </c>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A136" s="129"/>
+      <c r="A136" s="173"/>
       <c r="B136" s="29" t="s">
         <v>17</v>
       </c>
@@ -11390,7 +11794,7 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="130"/>
+      <c r="A137" s="174"/>
       <c r="B137" s="31" t="s">
         <v>18</v>
       </c>
@@ -11524,17 +11928,17 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A41:A49"/>
     <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:N30"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:N30"/>
     <mergeCell ref="D74:N74"/>
     <mergeCell ref="A51:A60"/>
     <mergeCell ref="B51:N51"/>
@@ -11612,7 +12016,7 @@
     <mergeCell ref="AA129:AC129"/>
     <mergeCell ref="AD129:AF129"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 F3:F6 F10:F11 G9 G11:H11 L14 F21:F23 F14:F18 I21:I22">
       <formula1>Types</formula1>
     </dataValidation>
@@ -11630,8 +12034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H58" sqref="C54:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11672,21 +12076,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="143"/>
+      <c r="A1" s="187"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="170" t="s">
+      <c r="C1" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="192"/>
+      <c r="E1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="133" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -11709,19 +12113,19 @@
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="171" t="s">
+      <c r="P1" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="169" t="s">
+      <c r="Q1" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="176" t="s">
+      <c r="R1" s="139" t="s">
         <v>89</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="175" t="s">
+      <c r="T1" s="138" t="s">
         <v>90</v>
       </c>
       <c r="U1" s="24" t="s">
@@ -11731,8 +12135,8 @@
       <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:35" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144"/>
-      <c r="B2" s="119" t="s">
+      <c r="A2" s="188"/>
+      <c r="B2" s="117" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -11771,22 +12175,22 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="172">
+      <c r="P2" s="135">
         <v>20</v>
       </c>
       <c r="Q2" s="8">
         <v>10</v>
       </c>
-      <c r="R2" s="173" t="s">
+      <c r="R2" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="174" t="s">
+      <c r="S2" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="120" t="s">
+      <c r="T2" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="174">
+      <c r="U2" s="137">
         <v>7850</v>
       </c>
       <c r="AH2" s="1"/>
@@ -11809,11 +12213,11 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="177" t="s">
+      <c r="R3" s="149"/>
+      <c r="S3" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="206"/>
+      <c r="T3" s="164"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="36"/>
     </row>
@@ -11887,22 +12291,22 @@
       <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="180"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
@@ -11911,44 +12315,44 @@
       <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="110" t="s">
+      <c r="B8" s="197"/>
+      <c r="C8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="113" t="s">
+      <c r="K8" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="112" t="s">
+      <c r="N8" s="110" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="36"/>
@@ -11964,10 +12368,10 @@
       <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="121" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="48">
@@ -12014,18 +12418,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="117"/>
+      <c r="S9" s="115"/>
       <c r="T9" s="15"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="36"/>
     </row>
     <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
-      <c r="B10" s="114" t="s">
+      <c r="A10" s="201"/>
+      <c r="B10" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="107">
@@ -12074,18 +12478,18 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="161"/>
+      <c r="S10" s="124"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="36"/>
     </row>
     <row r="11" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152"/>
-      <c r="B11" s="114" t="s">
+      <c r="A11" s="201"/>
+      <c r="B11" s="112" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="107">
@@ -12139,27 +12543,27 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="164" t="s">
+      <c r="R11" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="S11" s="165"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="166"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="129"/>
       <c r="V11" s="41"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="117"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="115"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="1:35" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12169,7 +12573,7 @@
       <c r="E12" s="106">
         <v>0</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12180,7 +12584,7 @@
       <c r="H12" s="106">
         <v>0</v>
       </c>
-      <c r="I12" s="116">
+      <c r="I12" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12190,7 +12594,7 @@
       <c r="K12" s="106">
         <v>0</v>
       </c>
-      <c r="L12" s="116">
+      <c r="L12" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12202,23 +12606,23 @@
         <v>0</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="118"/>
+      <c r="P12" s="116"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="165"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="128"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="117"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="115"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="36"/>
     </row>
     <row r="13" spans="1:35" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="116">
+      <c r="A13" s="201"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12229,7 +12633,7 @@
       <c r="E13" s="106">
         <v>0</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12240,7 +12644,7 @@
       <c r="H13" s="76">
         <v>0</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12251,7 +12655,7 @@
       <c r="K13" s="106">
         <v>0</v>
       </c>
-      <c r="L13" s="116">
+      <c r="L13" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12263,22 +12667,22 @@
         <v>0</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="118"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="166"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="129"/>
       <c r="V13" s="41"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="117"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="115"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="190"/>
+      <c r="B14" s="113" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="103">
@@ -12324,22 +12728,22 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="165"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="128"/>
       <c r="V14" s="41"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="117"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="115"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="36"/>
     </row>
     <row r="15" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="121" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="100">
@@ -12387,20 +12791,20 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="128"/>
       <c r="V15" s="41"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="117"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="115"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="114" t="s">
+      <c r="A16" s="201"/>
+      <c r="B16" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="107">
@@ -12448,20 +12852,20 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="165"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="128"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="117"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="115"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="114" t="s">
+      <c r="A17" s="201"/>
+      <c r="B17" s="112" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="107">
@@ -12510,16 +12914,16 @@
       <c r="R17" s="5"/>
       <c r="S17" s="41"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="152"/>
-      <c r="B18" s="124" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="122" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="107">
@@ -12568,17 +12972,17 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="161"/>
+      <c r="S18" s="124"/>
       <c r="T18" s="15"/>
       <c r="U18" s="41"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="189" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -12588,7 +12992,7 @@
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12599,7 +13003,7 @@
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -12610,7 +13014,7 @@
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12621,7 +13025,7 @@
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="M19" s="116">
+      <c r="M19" s="114">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -12632,18 +13036,18 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="161"/>
+      <c r="S19" s="124"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="146"/>
-      <c r="B20" s="115" t="s">
+      <c r="A20" s="190"/>
+      <c r="B20" s="113" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="56">
@@ -12688,20 +13092,20 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="117"/>
+      <c r="S20" s="115"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="1:35" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="121" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="100">
@@ -12755,8 +13159,8 @@
       <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="114" t="s">
+      <c r="A22" s="201"/>
+      <c r="B22" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="100">
@@ -12812,8 +13216,8 @@
       <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="201"/>
+      <c r="B23" s="112" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="107">
@@ -12865,8 +13269,8 @@
       <c r="AI23" s="36"/>
     </row>
     <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="114" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="112" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="107">
@@ -12922,18 +13326,18 @@
       <c r="AI24" s="36"/>
     </row>
     <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="33"/>
       <c r="E25" s="106"/>
-      <c r="F25" s="116"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="33"/>
       <c r="H25" s="106"/>
-      <c r="I25" s="116"/>
+      <c r="I25" s="114"/>
       <c r="J25" s="33"/>
       <c r="K25" s="106"/>
-      <c r="L25" s="116"/>
+      <c r="L25" s="114"/>
       <c r="M25" s="33"/>
       <c r="N25" s="106"/>
       <c r="O25" s="5"/>
@@ -12945,18 +13349,18 @@
       <c r="AI25" s="36"/>
     </row>
     <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="152"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="33"/>
       <c r="E26" s="106"/>
-      <c r="F26" s="116"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="33"/>
       <c r="H26" s="106"/>
-      <c r="I26" s="116"/>
+      <c r="I26" s="114"/>
       <c r="J26" s="33"/>
       <c r="K26" s="106"/>
-      <c r="L26" s="116"/>
+      <c r="L26" s="114"/>
       <c r="M26" s="33"/>
       <c r="N26" s="106"/>
       <c r="O26" s="5"/>
@@ -12968,18 +13372,18 @@
       <c r="AI26" s="36"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="152"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="33"/>
       <c r="E27" s="106"/>
-      <c r="F27" s="116"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="33"/>
       <c r="H27" s="76"/>
-      <c r="I27" s="116"/>
+      <c r="I27" s="114"/>
       <c r="J27" s="33"/>
       <c r="K27" s="106"/>
-      <c r="L27" s="116"/>
+      <c r="L27" s="114"/>
       <c r="M27" s="33"/>
       <c r="N27" s="106"/>
       <c r="O27" s="5"/>
@@ -12992,51 +13396,51 @@
     </row>
     <row r="28" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
-      <c r="B28" s="121"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="121"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="121"/>
+      <c r="F28" s="119"/>
       <c r="G28" s="43"/>
-      <c r="H28" s="121"/>
+      <c r="H28" s="119"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="121"/>
+      <c r="J28" s="119"/>
       <c r="K28" s="43"/>
-      <c r="L28" s="121"/>
+      <c r="L28" s="119"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="178"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="141"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="178"/>
+      <c r="Q28" s="141"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="178"/>
+      <c r="S28" s="141"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="178"/>
+      <c r="U28" s="141"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="178"/>
+      <c r="W28" s="141"/>
       <c r="X28" s="5"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="149" t="s">
+      <c r="B29" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="151"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="195"/>
       <c r="O29" s="46"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
@@ -13045,42 +13449,42 @@
       <c r="AI29" s="36"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="132"/>
-      <c r="B30" s="145" t="s">
+      <c r="A30" s="176"/>
+      <c r="B30" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="142"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="186"/>
       <c r="O30" s="46"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="191" t="s">
+      <c r="R30" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="193"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="206"/>
     </row>
     <row r="31" spans="1:35" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="68" t="s">
         <v>74</v>
       </c>
@@ -13116,28 +13520,28 @@
       </c>
       <c r="O31" s="47"/>
       <c r="P31" s="1"/>
-      <c r="R31" s="188" t="s">
+      <c r="R31" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="S31" s="187" t="s">
+      <c r="S31" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="185" t="s">
+      <c r="T31" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="186"/>
+      <c r="U31" s="203"/>
       <c r="V31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="W31" s="190" t="s">
+      <c r="W31" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="X31" s="189" t="s">
+      <c r="X31" s="150" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
+    <row r="32" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="176"/>
       <c r="B32" s="65" t="s">
         <v>72</v>
       </c>
@@ -13166,28 +13570,28 @@
       <c r="O32" s="34"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
-      <c r="R32" s="179" t="str">
+      <c r="R32" s="142" t="str">
         <f>$D$2</f>
         <v>Р-4</v>
       </c>
-      <c r="S32" s="194" t="s">
+      <c r="S32" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="T32" s="179" t="s">
+      <c r="T32" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="U32" s="194" t="str">
+      <c r="U32" s="152" t="str">
         <f>$L$2&amp;"x"&amp;$K$2-$H$2-$J$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2</f>
         <v>12x526x10000 ГОСТ 19903-2015</v>
       </c>
-      <c r="V32" s="195">
+      <c r="V32" s="153">
         <v>1</v>
       </c>
-      <c r="W32" s="196">
+      <c r="W32" s="154">
         <f>ROUND($L$2*($K$2-$J$2-$H$2)*$F$2*$U$2*10^-9,3)</f>
         <v>495.49200000000002</v>
       </c>
-      <c r="X32" s="197">
+      <c r="X32" s="155">
         <f>$V$32*$W$32+$V$34*$W$34+$V$36*$W$36</f>
         <v>1286.7719999999999</v>
       </c>
@@ -13202,8 +13606,8 @@
       <c r="AG32" s="18"/>
       <c r="AH32" s="18"/>
     </row>
-    <row r="33" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="132"/>
+    <row r="33" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="176"/>
       <c r="B33" s="66" t="s">
         <v>50</v>
       </c>
@@ -13232,16 +13636,16 @@
       <c r="O33" s="34"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="180"/>
-      <c r="U33" s="198" t="str">
+      <c r="R33" s="144"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="156" t="str">
         <f>IF($L$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2</f>
         <v>10ХСНД ГОСТ Р 55374-2012</v>
       </c>
-      <c r="V33" s="199"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="200"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="158"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -13253,8 +13657,8 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
+    <row r="34" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="176"/>
       <c r="B34" s="66" t="s">
         <v>42</v>
       </c>
@@ -13279,29 +13683,29 @@
       <c r="O34" s="34"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="37"/>
-      <c r="R34" s="181"/>
-      <c r="S34" s="198" t="s">
+      <c r="R34" s="144"/>
+      <c r="S34" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="180" t="s">
+      <c r="T34" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="U34" s="198" t="str">
+      <c r="U34" s="156" t="str">
         <f>$H$2&amp;"x"&amp;$G$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2</f>
         <v>12x420x10000 ГОСТ 19903-2015</v>
       </c>
-      <c r="V34" s="199">
+      <c r="V34" s="157">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),2,1)</f>
         <v>2</v>
       </c>
-      <c r="W34" s="201">
+      <c r="W34" s="159">
         <f>ROUND($H$2*$G$2*$F$2*$U$2*10^-9,3)</f>
         <v>395.64</v>
       </c>
-      <c r="X34" s="200"/>
-    </row>
-    <row r="35" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="132"/>
+      <c r="X34" s="158"/>
+    </row>
+    <row r="35" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="176"/>
       <c r="B35" s="66" t="s">
         <v>43</v>
       </c>
@@ -13326,19 +13730,19 @@
       <c r="O35" s="34"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="37"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="198" t="str">
+      <c r="R35" s="144"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="156" t="str">
         <f>IF($H$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2</f>
         <v>10ХСНД ГОСТ Р 55374-2012</v>
       </c>
-      <c r="V35" s="199"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="200"/>
-    </row>
-    <row r="36" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A36" s="132"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="159"/>
+      <c r="X35" s="158"/>
+    </row>
+    <row r="36" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="176"/>
       <c r="B36" s="66" t="s">
         <v>44</v>
       </c>
@@ -13357,30 +13761,30 @@
       <c r="O36" s="34"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="37"/>
-      <c r="R36" s="181"/>
-      <c r="S36" s="198">
+      <c r="R36" s="144"/>
+      <c r="S36" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,3)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="181" t="s">
+      <c r="T36" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="U36" s="198">
+      <c r="U36" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2), ,$J$2&amp;"x"&amp;$I$2&amp;"x"&amp;$F$2&amp;" "&amp;$R$2)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="199">
+      <c r="V36" s="157">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,1)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="201">
+      <c r="W36" s="159">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,ROUND($J$2*I23*$F$2*$U$2*10^-9,3))</f>
         <v>0</v>
       </c>
-      <c r="X36" s="200"/>
-    </row>
-    <row r="37" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="132"/>
+      <c r="X36" s="158"/>
+    </row>
+    <row r="37" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="176"/>
       <c r="B37" s="66" t="s">
         <v>45</v>
       </c>
@@ -13398,19 +13802,19 @@
       <c r="N37" s="51"/>
       <c r="O37" s="34"/>
       <c r="P37" s="1"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="198"/>
-      <c r="T37" s="181"/>
-      <c r="U37" s="198">
+      <c r="R37" s="144"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="156">
         <f>IF(AND($G$2=$I$2,$H$2=$J$2),0,IF($J$2&lt;16,$S$2,$S$3)&amp;" "&amp;$T$2)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="199"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="200"/>
-    </row>
-    <row r="38" spans="1:35" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="133"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="159"/>
+      <c r="X37" s="158"/>
+    </row>
+    <row r="38" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="177"/>
       <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
@@ -13430,15 +13834,15 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="29"/>
-      <c r="S38" s="202">
-        <v>0</v>
-      </c>
-      <c r="T38" s="199"/>
-      <c r="U38" s="203"/>
-      <c r="V38" s="199">
-        <v>0</v>
-      </c>
-      <c r="W38" s="202">
+      <c r="S38" s="160">
+        <v>0</v>
+      </c>
+      <c r="T38" s="157"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="157">
+        <v>0</v>
+      </c>
+      <c r="W38" s="160">
         <v>0</v>
       </c>
       <c r="X38" s="29"/>
@@ -13462,18 +13866,18 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="31"/>
-      <c r="S39" s="204">
-        <v>0</v>
-      </c>
-      <c r="T39" s="182"/>
-      <c r="U39" s="205"/>
-      <c r="V39" s="182">
-        <v>0</v>
-      </c>
-      <c r="W39" s="204">
-        <v>0</v>
-      </c>
-      <c r="X39" s="184"/>
+      <c r="S39" s="162">
+        <v>0</v>
+      </c>
+      <c r="T39" s="145"/>
+      <c r="U39" s="163"/>
+      <c r="V39" s="145">
+        <v>0</v>
+      </c>
+      <c r="W39" s="162">
+        <v>0</v>
+      </c>
+      <c r="X39" s="147"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="98"/>
@@ -13513,7 +13917,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="172" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -13529,59 +13933,59 @@
       <c r="E41" s="94">
         <v>0</v>
       </c>
-      <c r="F41" s="125" t="s">
+      <c r="F41" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="125" t="s">
+      <c r="G41" s="170"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="126"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="125" t="s">
+      <c r="J41" s="170"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="126"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="125" t="s">
+      <c r="M41" s="170"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="125" t="s">
+      <c r="P41" s="170"/>
+      <c r="Q41" s="171"/>
+      <c r="R41" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="125" t="s">
+      <c r="S41" s="170"/>
+      <c r="T41" s="171"/>
+      <c r="U41" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V41" s="126"/>
-      <c r="W41" s="127"/>
-      <c r="X41" s="125" t="s">
+      <c r="V41" s="170"/>
+      <c r="W41" s="171"/>
+      <c r="X41" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="126"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="125" t="s">
+      <c r="Y41" s="170"/>
+      <c r="Z41" s="171"/>
+      <c r="AA41" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="125" t="s">
+      <c r="AB41" s="170"/>
+      <c r="AC41" s="171"/>
+      <c r="AD41" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="125" t="s">
+      <c r="AE41" s="170"/>
+      <c r="AF41" s="171"/>
+      <c r="AG41" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH41" s="126"/>
-      <c r="AI41" s="127"/>
+      <c r="AH41" s="170"/>
+      <c r="AI41" s="171"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="129"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="79" t="s">
         <v>12</v>
       </c>
@@ -13686,7 +14090,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="153"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="26" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +14217,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="29" t="s">
         <v>13</v>
       </c>
@@ -13940,7 +14344,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="29" t="s">
         <v>14</v>
       </c>
@@ -14067,7 +14471,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="29" t="s">
         <v>15</v>
       </c>
@@ -14194,7 +14598,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="29" t="s">
         <v>16</v>
       </c>
@@ -14321,7 +14725,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -14448,7 +14852,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="154"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="31" t="s">
         <v>18</v>
       </c>
@@ -14612,24 +15016,24 @@
       <c r="AI50" s="15"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="136"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="179"/>
+      <c r="N51" s="180"/>
       <c r="O51" s="46"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="1"/>
@@ -14638,33 +15042,33 @@
       <c r="AI51" s="36"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="132"/>
-      <c r="B52" s="145" t="s">
+      <c r="A52" s="176"/>
+      <c r="B52" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="139" t="s">
+      <c r="C52" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="141" t="s">
+      <c r="D52" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="142"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="185"/>
+      <c r="K52" s="185"/>
+      <c r="L52" s="185"/>
+      <c r="M52" s="185"/>
+      <c r="N52" s="186"/>
       <c r="O52" s="46"/>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="132"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="140"/>
+      <c r="A53" s="176"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="68" t="s">
         <v>74</v>
       </c>
@@ -14701,8 +15105,8 @@
       <c r="O53" s="47"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="132"/>
+    <row r="54" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="176"/>
       <c r="B54" s="65" t="s">
         <v>49</v>
       </c>
@@ -14749,8 +15153,8 @@
       <c r="AG54" s="18"/>
       <c r="AH54" s="18"/>
     </row>
-    <row r="55" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="132"/>
+    <row r="55" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="176"/>
       <c r="B55" s="66" t="s">
         <v>50</v>
       </c>
@@ -14797,8 +15201,8 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="132"/>
+    <row r="56" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="176"/>
       <c r="B56" s="66" t="s">
         <v>42</v>
       </c>
@@ -14832,8 +15236,8 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A57" s="132"/>
+    <row r="57" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="176"/>
       <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
@@ -14867,8 +15271,8 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A58" s="132"/>
+    <row r="58" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="176"/>
       <c r="B58" s="66" t="s">
         <v>44</v>
       </c>
@@ -14892,8 +15296,8 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="132"/>
+    <row r="59" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="176"/>
       <c r="B59" s="66" t="s">
         <v>45</v>
       </c>
@@ -14915,8 +15319,8 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:35" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="133"/>
+    <row r="60" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="177"/>
       <c r="B60" s="67" t="s">
         <v>46</v>
       </c>
@@ -15001,7 +15405,7 @@
       <c r="AI62" s="22"/>
     </row>
     <row r="63" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="172" t="s">
         <v>52</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -15018,59 +15422,59 @@
       <c r="E63" s="91">
         <v>0</v>
       </c>
-      <c r="F63" s="125" t="s">
+      <c r="F63" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="126"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="125" t="s">
+      <c r="G63" s="170"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="126"/>
-      <c r="K63" s="127"/>
-      <c r="L63" s="125" t="s">
+      <c r="J63" s="170"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M63" s="126"/>
-      <c r="N63" s="127"/>
-      <c r="O63" s="125" t="s">
+      <c r="M63" s="170"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="125" t="s">
+      <c r="P63" s="170"/>
+      <c r="Q63" s="171"/>
+      <c r="R63" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S63" s="126"/>
-      <c r="T63" s="127"/>
-      <c r="U63" s="125" t="s">
+      <c r="S63" s="170"/>
+      <c r="T63" s="171"/>
+      <c r="U63" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V63" s="126"/>
-      <c r="W63" s="127"/>
-      <c r="X63" s="125" t="s">
+      <c r="V63" s="170"/>
+      <c r="W63" s="171"/>
+      <c r="X63" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y63" s="126"/>
-      <c r="Z63" s="127"/>
-      <c r="AA63" s="125" t="s">
+      <c r="Y63" s="170"/>
+      <c r="Z63" s="171"/>
+      <c r="AA63" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB63" s="126"/>
-      <c r="AC63" s="127"/>
-      <c r="AD63" s="125" t="s">
+      <c r="AB63" s="170"/>
+      <c r="AC63" s="171"/>
+      <c r="AD63" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE63" s="126"/>
-      <c r="AF63" s="127"/>
-      <c r="AG63" s="125" t="s">
+      <c r="AE63" s="170"/>
+      <c r="AF63" s="171"/>
+      <c r="AG63" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH63" s="126"/>
-      <c r="AI63" s="127"/>
+      <c r="AH63" s="170"/>
+      <c r="AI63" s="171"/>
     </row>
     <row r="64" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="129"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="72" t="s">
         <v>12</v>
       </c>
@@ -15175,7 +15579,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="129"/>
+      <c r="A65" s="173"/>
       <c r="B65" s="26" t="s">
         <v>58</v>
       </c>
@@ -15302,7 +15706,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="129"/>
+      <c r="A66" s="173"/>
       <c r="B66" s="29" t="s">
         <v>13</v>
       </c>
@@ -15429,7 +15833,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="129"/>
+      <c r="A67" s="173"/>
       <c r="B67" s="29" t="s">
         <v>14</v>
       </c>
@@ -15556,7 +15960,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
+      <c r="A68" s="173"/>
       <c r="B68" s="29" t="s">
         <v>15</v>
       </c>
@@ -15683,7 +16087,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
+      <c r="A69" s="173"/>
       <c r="B69" s="29" t="s">
         <v>16</v>
       </c>
@@ -15810,7 +16214,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
+      <c r="A70" s="173"/>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
@@ -15937,7 +16341,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="130"/>
+      <c r="A71" s="174"/>
       <c r="B71" s="31" t="s">
         <v>18</v>
       </c>
@@ -16101,24 +16505,24 @@
       <c r="AI72" s="15"/>
     </row>
     <row r="73" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="134" t="s">
+      <c r="B73" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="136"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="179"/>
+      <c r="M73" s="179"/>
+      <c r="N73" s="180"/>
       <c r="O73" s="46"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="1"/>
@@ -16127,33 +16531,33 @@
       <c r="AI73" s="36"/>
     </row>
     <row r="74" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="132"/>
-      <c r="B74" s="137" t="s">
+      <c r="A74" s="176"/>
+      <c r="B74" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="139" t="s">
+      <c r="C74" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="141" t="s">
+      <c r="D74" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="142"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="185"/>
+      <c r="M74" s="185"/>
+      <c r="N74" s="186"/>
       <c r="O74" s="46"/>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:35" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="132"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="140"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="182"/>
+      <c r="C75" s="184"/>
       <c r="D75" s="68" t="s">
         <v>74</v>
       </c>
@@ -16190,8 +16594,8 @@
       <c r="O75" s="47"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A76" s="132"/>
+    <row r="76" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="176"/>
       <c r="B76" s="65" t="s">
         <v>49</v>
       </c>
@@ -16238,8 +16642,8 @@
       <c r="AG76" s="18"/>
       <c r="AH76" s="18"/>
     </row>
-    <row r="77" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A77" s="132"/>
+    <row r="77" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="176"/>
       <c r="B77" s="66" t="s">
         <v>50</v>
       </c>
@@ -16286,8 +16690,8 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="132"/>
+    <row r="78" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="176"/>
       <c r="B78" s="66" t="s">
         <v>42</v>
       </c>
@@ -16317,8 +16721,8 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A79" s="132"/>
+    <row r="79" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="176"/>
       <c r="B79" s="66" t="s">
         <v>43</v>
       </c>
@@ -16348,8 +16752,8 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A80" s="132"/>
+    <row r="80" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="176"/>
       <c r="B80" s="66" t="s">
         <v>44</v>
       </c>
@@ -16373,8 +16777,8 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A81" s="132"/>
+    <row r="81" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="176"/>
       <c r="B81" s="66" t="s">
         <v>45</v>
       </c>
@@ -16396,8 +16800,8 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:35" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="133"/>
+    <row r="82" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="177"/>
       <c r="B82" s="67" t="s">
         <v>46</v>
       </c>
@@ -16482,7 +16886,7 @@
       <c r="AI84" s="22"/>
     </row>
     <row r="85" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="128" t="s">
+      <c r="A85" s="172" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="24" t="s">
@@ -16499,59 +16903,59 @@
       <c r="E85" s="94">
         <v>0</v>
       </c>
-      <c r="F85" s="125" t="s">
+      <c r="F85" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="126"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="125" t="s">
+      <c r="G85" s="170"/>
+      <c r="H85" s="171"/>
+      <c r="I85" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="126"/>
-      <c r="K85" s="127"/>
-      <c r="L85" s="125" t="s">
+      <c r="J85" s="170"/>
+      <c r="K85" s="171"/>
+      <c r="L85" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M85" s="126"/>
-      <c r="N85" s="127"/>
-      <c r="O85" s="125" t="s">
+      <c r="M85" s="170"/>
+      <c r="N85" s="171"/>
+      <c r="O85" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P85" s="126"/>
-      <c r="Q85" s="127"/>
-      <c r="R85" s="125" t="s">
+      <c r="P85" s="170"/>
+      <c r="Q85" s="171"/>
+      <c r="R85" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S85" s="126"/>
-      <c r="T85" s="127"/>
-      <c r="U85" s="125" t="s">
+      <c r="S85" s="170"/>
+      <c r="T85" s="171"/>
+      <c r="U85" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="126"/>
-      <c r="W85" s="127"/>
-      <c r="X85" s="125" t="s">
+      <c r="V85" s="170"/>
+      <c r="W85" s="171"/>
+      <c r="X85" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y85" s="126"/>
-      <c r="Z85" s="127"/>
-      <c r="AA85" s="125" t="s">
+      <c r="Y85" s="170"/>
+      <c r="Z85" s="171"/>
+      <c r="AA85" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB85" s="126"/>
-      <c r="AC85" s="127"/>
-      <c r="AD85" s="125" t="s">
+      <c r="AB85" s="170"/>
+      <c r="AC85" s="171"/>
+      <c r="AD85" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE85" s="126"/>
-      <c r="AF85" s="127"/>
-      <c r="AG85" s="125" t="s">
+      <c r="AE85" s="170"/>
+      <c r="AF85" s="171"/>
+      <c r="AG85" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH85" s="126"/>
-      <c r="AI85" s="127"/>
+      <c r="AH85" s="170"/>
+      <c r="AI85" s="171"/>
     </row>
     <row r="86" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="129"/>
+      <c r="A86" s="173"/>
       <c r="B86" s="72" t="s">
         <v>12</v>
       </c>
@@ -16656,7 +17060,7 @@
       </c>
     </row>
     <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="129"/>
+      <c r="A87" s="173"/>
       <c r="B87" s="26" t="s">
         <v>58</v>
       </c>
@@ -16783,7 +17187,7 @@
       </c>
     </row>
     <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="129"/>
+      <c r="A88" s="173"/>
       <c r="B88" s="29" t="s">
         <v>13</v>
       </c>
@@ -16910,7 +17314,7 @@
       </c>
     </row>
     <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="129"/>
+      <c r="A89" s="173"/>
       <c r="B89" s="29" t="s">
         <v>14</v>
       </c>
@@ -17037,7 +17441,7 @@
       </c>
     </row>
     <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="129"/>
+      <c r="A90" s="173"/>
       <c r="B90" s="29" t="s">
         <v>15</v>
       </c>
@@ -17164,7 +17568,7 @@
       </c>
     </row>
     <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="129"/>
+      <c r="A91" s="173"/>
       <c r="B91" s="29" t="s">
         <v>16</v>
       </c>
@@ -17291,7 +17695,7 @@
       </c>
     </row>
     <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="129"/>
+      <c r="A92" s="173"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -17418,7 +17822,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="130"/>
+      <c r="A93" s="174"/>
       <c r="B93" s="31" t="s">
         <v>18</v>
       </c>
@@ -17546,24 +17950,24 @@
     </row>
     <row r="94" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="131" t="s">
+      <c r="A95" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="134" t="s">
+      <c r="B95" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="135"/>
-      <c r="D95" s="135"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="135"/>
-      <c r="K95" s="135"/>
-      <c r="L95" s="135"/>
-      <c r="M95" s="135"/>
-      <c r="N95" s="136"/>
+      <c r="C95" s="179"/>
+      <c r="D95" s="179"/>
+      <c r="E95" s="179"/>
+      <c r="F95" s="179"/>
+      <c r="G95" s="179"/>
+      <c r="H95" s="179"/>
+      <c r="I95" s="179"/>
+      <c r="J95" s="179"/>
+      <c r="K95" s="179"/>
+      <c r="L95" s="179"/>
+      <c r="M95" s="179"/>
+      <c r="N95" s="180"/>
       <c r="O95" s="46"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="1"/>
@@ -17572,33 +17976,33 @@
       <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="132"/>
-      <c r="B96" s="137" t="s">
+      <c r="A96" s="176"/>
+      <c r="B96" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="139" t="s">
+      <c r="C96" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="141" t="s">
+      <c r="D96" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="141"/>
-      <c r="F96" s="141"/>
-      <c r="G96" s="141"/>
-      <c r="H96" s="141"/>
-      <c r="I96" s="141"/>
-      <c r="J96" s="141"/>
-      <c r="K96" s="141"/>
-      <c r="L96" s="141"/>
-      <c r="M96" s="141"/>
-      <c r="N96" s="142"/>
+      <c r="E96" s="185"/>
+      <c r="F96" s="185"/>
+      <c r="G96" s="185"/>
+      <c r="H96" s="185"/>
+      <c r="I96" s="185"/>
+      <c r="J96" s="185"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
+      <c r="N96" s="186"/>
       <c r="O96" s="46"/>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="132"/>
-      <c r="B97" s="138"/>
-      <c r="C97" s="140"/>
+      <c r="A97" s="176"/>
+      <c r="B97" s="182"/>
+      <c r="C97" s="184"/>
       <c r="D97" s="68" t="s">
         <v>74</v>
       </c>
@@ -17635,8 +18039,8 @@
       <c r="O97" s="47"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A98" s="132"/>
+    <row r="98" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98" s="176"/>
       <c r="B98" s="65" t="s">
         <v>49</v>
       </c>
@@ -17687,8 +18091,8 @@
       <c r="AG98" s="18"/>
       <c r="AH98" s="18"/>
     </row>
-    <row r="99" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A99" s="132"/>
+    <row r="99" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99" s="176"/>
       <c r="B99" s="66" t="s">
         <v>50</v>
       </c>
@@ -17739,8 +18143,8 @@
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
     </row>
-    <row r="100" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="132"/>
+    <row r="100" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A100" s="176"/>
       <c r="B100" s="66" t="s">
         <v>42</v>
       </c>
@@ -17778,8 +18182,8 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A101" s="132"/>
+    <row r="101" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="176"/>
       <c r="B101" s="66" t="s">
         <v>43</v>
       </c>
@@ -17817,8 +18221,8 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A102" s="132"/>
+    <row r="102" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="176"/>
       <c r="B102" s="66" t="s">
         <v>44</v>
       </c>
@@ -17842,8 +18246,8 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A103" s="132"/>
+    <row r="103" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A103" s="176"/>
       <c r="B103" s="66" t="s">
         <v>45</v>
       </c>
@@ -17865,8 +18269,8 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" spans="1:35" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="133"/>
+    <row r="104" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="177"/>
       <c r="B104" s="67" t="s">
         <v>46</v>
       </c>
@@ -17951,7 +18355,7 @@
       <c r="AI106" s="22"/>
     </row>
     <row r="107" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="128" t="s">
+      <c r="A107" s="172" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -17966,59 +18370,59 @@
       <c r="E107" s="94">
         <v>0</v>
       </c>
-      <c r="F107" s="125" t="s">
+      <c r="F107" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="126"/>
-      <c r="H107" s="127"/>
-      <c r="I107" s="125" t="s">
+      <c r="G107" s="170"/>
+      <c r="H107" s="171"/>
+      <c r="I107" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J107" s="126"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="125" t="s">
+      <c r="J107" s="170"/>
+      <c r="K107" s="171"/>
+      <c r="L107" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M107" s="126"/>
-      <c r="N107" s="127"/>
-      <c r="O107" s="125" t="s">
+      <c r="M107" s="170"/>
+      <c r="N107" s="171"/>
+      <c r="O107" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P107" s="126"/>
-      <c r="Q107" s="127"/>
-      <c r="R107" s="125" t="s">
+      <c r="P107" s="170"/>
+      <c r="Q107" s="171"/>
+      <c r="R107" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S107" s="126"/>
-      <c r="T107" s="127"/>
-      <c r="U107" s="125" t="s">
+      <c r="S107" s="170"/>
+      <c r="T107" s="171"/>
+      <c r="U107" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V107" s="126"/>
-      <c r="W107" s="127"/>
-      <c r="X107" s="125" t="s">
+      <c r="V107" s="170"/>
+      <c r="W107" s="171"/>
+      <c r="X107" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y107" s="126"/>
-      <c r="Z107" s="127"/>
-      <c r="AA107" s="125" t="s">
+      <c r="Y107" s="170"/>
+      <c r="Z107" s="171"/>
+      <c r="AA107" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB107" s="126"/>
-      <c r="AC107" s="127"/>
-      <c r="AD107" s="125" t="s">
+      <c r="AB107" s="170"/>
+      <c r="AC107" s="171"/>
+      <c r="AD107" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE107" s="126"/>
-      <c r="AF107" s="127"/>
-      <c r="AG107" s="125" t="s">
+      <c r="AE107" s="170"/>
+      <c r="AF107" s="171"/>
+      <c r="AG107" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH107" s="126"/>
-      <c r="AI107" s="127"/>
+      <c r="AH107" s="170"/>
+      <c r="AI107" s="171"/>
     </row>
     <row r="108" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="129"/>
+      <c r="A108" s="173"/>
       <c r="B108" s="72" t="s">
         <v>70</v>
       </c>
@@ -18123,7 +18527,7 @@
       </c>
     </row>
     <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="129"/>
+      <c r="A109" s="173"/>
       <c r="B109" s="26" t="s">
         <v>58</v>
       </c>
@@ -18250,7 +18654,7 @@
       </c>
     </row>
     <row r="110" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="129"/>
+      <c r="A110" s="173"/>
       <c r="B110" s="29" t="s">
         <v>13</v>
       </c>
@@ -18377,7 +18781,7 @@
       </c>
     </row>
     <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="129"/>
+      <c r="A111" s="173"/>
       <c r="B111" s="29" t="s">
         <v>14</v>
       </c>
@@ -18504,7 +18908,7 @@
       </c>
     </row>
     <row r="112" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="129"/>
+      <c r="A112" s="173"/>
       <c r="B112" s="29" t="s">
         <v>15</v>
       </c>
@@ -18631,7 +19035,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="129"/>
+      <c r="A113" s="173"/>
       <c r="B113" s="29" t="s">
         <v>16</v>
       </c>
@@ -18758,7 +19162,7 @@
       </c>
     </row>
     <row r="114" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="129"/>
+      <c r="A114" s="173"/>
       <c r="B114" s="29" t="s">
         <v>17</v>
       </c>
@@ -18885,7 +19289,7 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="130"/>
+      <c r="A115" s="174"/>
       <c r="B115" s="31" t="s">
         <v>18</v>
       </c>
@@ -19013,24 +19417,24 @@
     </row>
     <row r="116" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="131" t="s">
+      <c r="A117" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="134" t="s">
+      <c r="B117" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
-      <c r="E117" s="135"/>
-      <c r="F117" s="135"/>
-      <c r="G117" s="135"/>
-      <c r="H117" s="135"/>
-      <c r="I117" s="135"/>
-      <c r="J117" s="135"/>
-      <c r="K117" s="135"/>
-      <c r="L117" s="135"/>
-      <c r="M117" s="135"/>
-      <c r="N117" s="136"/>
+      <c r="C117" s="179"/>
+      <c r="D117" s="179"/>
+      <c r="E117" s="179"/>
+      <c r="F117" s="179"/>
+      <c r="G117" s="179"/>
+      <c r="H117" s="179"/>
+      <c r="I117" s="179"/>
+      <c r="J117" s="179"/>
+      <c r="K117" s="179"/>
+      <c r="L117" s="179"/>
+      <c r="M117" s="179"/>
+      <c r="N117" s="180"/>
       <c r="O117" s="46"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="1"/>
@@ -19039,33 +19443,33 @@
       <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="132"/>
-      <c r="B118" s="137" t="s">
+      <c r="A118" s="176"/>
+      <c r="B118" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="139" t="s">
+      <c r="C118" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="141" t="s">
+      <c r="D118" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="141"/>
-      <c r="F118" s="141"/>
-      <c r="G118" s="141"/>
-      <c r="H118" s="141"/>
-      <c r="I118" s="141"/>
-      <c r="J118" s="141"/>
-      <c r="K118" s="141"/>
-      <c r="L118" s="141"/>
-      <c r="M118" s="141"/>
-      <c r="N118" s="142"/>
+      <c r="E118" s="185"/>
+      <c r="F118" s="185"/>
+      <c r="G118" s="185"/>
+      <c r="H118" s="185"/>
+      <c r="I118" s="185"/>
+      <c r="J118" s="185"/>
+      <c r="K118" s="185"/>
+      <c r="L118" s="185"/>
+      <c r="M118" s="185"/>
+      <c r="N118" s="186"/>
       <c r="O118" s="46"/>
       <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:35" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="132"/>
-      <c r="B119" s="138"/>
-      <c r="C119" s="140"/>
+      <c r="A119" s="176"/>
+      <c r="B119" s="182"/>
+      <c r="C119" s="184"/>
       <c r="D119" s="68" t="s">
         <v>74</v>
       </c>
@@ -19102,8 +19506,8 @@
       <c r="O119" s="47"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A120" s="132"/>
+    <row r="120" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A120" s="176"/>
       <c r="B120" s="65" t="s">
         <v>49</v>
       </c>
@@ -19154,8 +19558,8 @@
       <c r="AG120" s="18"/>
       <c r="AH120" s="18"/>
     </row>
-    <row r="121" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A121" s="132"/>
+    <row r="121" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A121" s="176"/>
       <c r="B121" s="66" t="s">
         <v>50</v>
       </c>
@@ -19206,8 +19610,8 @@
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
     </row>
-    <row r="122" spans="1:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="132"/>
+    <row r="122" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A122" s="176"/>
       <c r="B122" s="66" t="s">
         <v>42</v>
       </c>
@@ -19245,8 +19649,8 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A123" s="132"/>
+    <row r="123" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A123" s="176"/>
       <c r="B123" s="66" t="s">
         <v>43</v>
       </c>
@@ -19284,8 +19688,8 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A124" s="132"/>
+    <row r="124" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A124" s="176"/>
       <c r="B124" s="66" t="s">
         <v>44</v>
       </c>
@@ -19309,8 +19713,8 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" spans="1:35" ht="66" x14ac:dyDescent="0.3">
-      <c r="A125" s="132"/>
+    <row r="125" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A125" s="176"/>
       <c r="B125" s="66" t="s">
         <v>45</v>
       </c>
@@ -19332,8 +19736,8 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:35" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="133"/>
+    <row r="126" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="177"/>
       <c r="B126" s="67" t="s">
         <v>46</v>
       </c>
@@ -19418,7 +19822,7 @@
       <c r="AI128" s="22"/>
     </row>
     <row r="129" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="128" t="s">
+      <c r="A129" s="172" t="s">
         <v>54</v>
       </c>
       <c r="B129" s="24" t="s">
@@ -19434,59 +19838,59 @@
       <c r="E129" s="94">
         <v>0</v>
       </c>
-      <c r="F129" s="125" t="s">
+      <c r="F129" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="126"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="125" t="s">
+      <c r="G129" s="170"/>
+      <c r="H129" s="171"/>
+      <c r="I129" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J129" s="126"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="125" t="s">
+      <c r="J129" s="170"/>
+      <c r="K129" s="171"/>
+      <c r="L129" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="M129" s="126"/>
-      <c r="N129" s="127"/>
-      <c r="O129" s="125" t="s">
+      <c r="M129" s="170"/>
+      <c r="N129" s="171"/>
+      <c r="O129" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="P129" s="126"/>
-      <c r="Q129" s="127"/>
-      <c r="R129" s="125" t="s">
+      <c r="P129" s="170"/>
+      <c r="Q129" s="171"/>
+      <c r="R129" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="S129" s="126"/>
-      <c r="T129" s="127"/>
-      <c r="U129" s="125" t="s">
+      <c r="S129" s="170"/>
+      <c r="T129" s="171"/>
+      <c r="U129" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="V129" s="126"/>
-      <c r="W129" s="127"/>
-      <c r="X129" s="125" t="s">
+      <c r="V129" s="170"/>
+      <c r="W129" s="171"/>
+      <c r="X129" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="Y129" s="126"/>
-      <c r="Z129" s="127"/>
-      <c r="AA129" s="125" t="s">
+      <c r="Y129" s="170"/>
+      <c r="Z129" s="171"/>
+      <c r="AA129" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="AB129" s="126"/>
-      <c r="AC129" s="127"/>
-      <c r="AD129" s="125" t="s">
+      <c r="AB129" s="170"/>
+      <c r="AC129" s="171"/>
+      <c r="AD129" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="AE129" s="126"/>
-      <c r="AF129" s="127"/>
-      <c r="AG129" s="125" t="s">
+      <c r="AE129" s="170"/>
+      <c r="AF129" s="171"/>
+      <c r="AG129" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AH129" s="126"/>
-      <c r="AI129" s="127"/>
+      <c r="AH129" s="170"/>
+      <c r="AI129" s="171"/>
     </row>
     <row r="130" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="129"/>
+      <c r="A130" s="173"/>
       <c r="B130" s="72" t="s">
         <v>12</v>
       </c>
@@ -19591,7 +19995,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="129"/>
+      <c r="A131" s="173"/>
       <c r="B131" s="26" t="s">
         <v>58</v>
       </c>
@@ -19718,7 +20122,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="129"/>
+      <c r="A132" s="173"/>
       <c r="B132" s="29" t="s">
         <v>13</v>
       </c>
@@ -19845,7 +20249,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="129"/>
+      <c r="A133" s="173"/>
       <c r="B133" s="29" t="s">
         <v>14</v>
       </c>
@@ -19972,7 +20376,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="129"/>
+      <c r="A134" s="173"/>
       <c r="B134" s="29" t="s">
         <v>15</v>
       </c>
@@ -20099,7 +20503,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="129"/>
+      <c r="A135" s="173"/>
       <c r="B135" s="29" t="s">
         <v>16</v>
       </c>
@@ -20226,7 +20630,7 @@
       </c>
     </row>
     <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="129"/>
+      <c r="A136" s="173"/>
       <c r="B136" s="29" t="s">
         <v>17</v>
       </c>
@@ -20353,7 +20757,7 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="130"/>
+      <c r="A137" s="174"/>
       <c r="B137" s="31" t="s">
         <v>18</v>
       </c>
@@ -20481,10 +20885,6 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="U129:W129"/>
-    <mergeCell ref="X129:Z129"/>
-    <mergeCell ref="AA129:AC129"/>
-    <mergeCell ref="AD129:AF129"/>
     <mergeCell ref="AG129:AI129"/>
     <mergeCell ref="A129:A137"/>
     <mergeCell ref="F129:H129"/>
@@ -20496,6 +20896,11 @@
     <mergeCell ref="X107:Z107"/>
     <mergeCell ref="AA107:AC107"/>
     <mergeCell ref="AD107:AF107"/>
+    <mergeCell ref="U129:W129"/>
+    <mergeCell ref="X129:Z129"/>
+    <mergeCell ref="AA129:AC129"/>
+    <mergeCell ref="AD129:AF129"/>
+    <mergeCell ref="AG85:AI85"/>
     <mergeCell ref="AG107:AI107"/>
     <mergeCell ref="A117:A126"/>
     <mergeCell ref="B117:N117"/>
@@ -20508,11 +20913,6 @@
     <mergeCell ref="L107:N107"/>
     <mergeCell ref="O107:Q107"/>
     <mergeCell ref="R107:T107"/>
-    <mergeCell ref="U85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="AG85:AI85"/>
     <mergeCell ref="A95:A104"/>
     <mergeCell ref="B95:N95"/>
     <mergeCell ref="B96:B97"/>
@@ -20528,6 +20928,10 @@
     <mergeCell ref="X63:Z63"/>
     <mergeCell ref="AA63:AC63"/>
     <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
     <mergeCell ref="AG63:AI63"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="B73:N73"/>
@@ -20567,13 +20971,13 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:N30"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">

--- a/etc/initial_data.xlsx
+++ b/etc/initial_data.xlsx
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -982,27 +982,6 @@
   </si>
   <si>
     <t>Н.контроль</t>
-  </si>
-  <si>
-    <t>Новиков Д.А.</t>
-  </si>
-  <si>
-    <t>Старовойт Е.А.</t>
-  </si>
-  <si>
-    <t>Шестоперов В.Г.</t>
-  </si>
-  <si>
-    <t>Дорофеев С.С</t>
-  </si>
-  <si>
-    <t>4740.XV-ТКР 2.2</t>
-  </si>
-  <si>
-    <t>Искусственные сооружения. Мост через канал им. Москвы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Организация пригородно-городского пассажирского железнодорожного движения на участке Одинцово - Лобня (МЦД-1 Одинцово - Лобня) Этап 15. «Строительство III и IV главных путей на участке Москва-Бутырская - Лобня». </t>
   </si>
   <si>
     <t>9-th-10-th column indent</t>
@@ -2386,126 +2365,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,21 +2452,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2628,18 +2475,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2688,6 +2523,150 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2997,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3039,14 +3018,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187"/>
+      <c r="A1" s="267"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="192"/>
+      <c r="C1" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="243"/>
       <c r="E1" s="133" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3077,7 @@
       <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:35" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="188"/>
+      <c r="A2" s="268"/>
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3202,11 +3181,11 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="229"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="189"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="36"/>
     </row>
@@ -3229,11 +3208,11 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="211"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="217"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="177"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="36"/>
     </row>
@@ -3256,61 +3235,61 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="265"/>
-      <c r="S6" s="266"/>
-      <c r="T6" s="267"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="269"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="220"/>
+      <c r="V6" s="221"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="270"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="46"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="271"/>
-      <c r="U7" s="271"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="272"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="223"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="224"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="244"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="258" t="s">
+      <c r="D8" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="215" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="258" t="s">
+      <c r="G8" s="210" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="25" t="s">
@@ -3319,16 +3298,16 @@
       <c r="I8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="258" t="s">
+      <c r="J8" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="263" t="s">
+      <c r="K8" s="215" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="258" t="s">
+      <c r="M8" s="210" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="25" t="s">
@@ -3338,16 +3317,16 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="46"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="209"/>
-      <c r="U8" s="271"/>
-      <c r="V8" s="270"/>
-      <c r="W8" s="272"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="222"/>
+      <c r="W8" s="224"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="233" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="167" t="s">
@@ -3380,7 +3359,7 @@
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="K9" s="252">
+      <c r="K9" s="208">
         <v>0</v>
       </c>
       <c r="L9" s="48">
@@ -3396,18 +3375,18 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="273"/>
-      <c r="S9" s="210"/>
+      <c r="R9" s="225"/>
+      <c r="S9" s="170"/>
       <c r="T9" s="130"/>
-      <c r="U9" s="271"/>
-      <c r="V9" s="270"/>
-      <c r="W9" s="272"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="224"/>
       <c r="X9" s="115"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="36"/>
     </row>
     <row r="10" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="112" t="s">
         <v>30</v>
       </c>
@@ -3440,7 +3419,7 @@
         <f>K2</f>
         <v>550</v>
       </c>
-      <c r="K10" s="261">
+      <c r="K10" s="213">
         <v>0</v>
       </c>
       <c r="L10" s="50">
@@ -3456,18 +3435,18 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="270"/>
-      <c r="U10" s="271"/>
-      <c r="V10" s="270"/>
-      <c r="W10" s="272"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="223"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="224"/>
       <c r="X10" s="115"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="36"/>
     </row>
     <row r="11" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="201"/>
+      <c r="A11" s="234"/>
       <c r="B11" s="113" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3454,7 @@
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="240">
+      <c r="D11" s="200">
         <f t="shared" ref="D11:E11" si="0">M9</f>
         <v>12</v>
       </c>
@@ -3503,7 +3482,7 @@
         <f t="shared" ref="J11:K11" si="2">G10</f>
         <v>538</v>
       </c>
-      <c r="K11" s="251">
+      <c r="K11" s="207">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3522,25 +3501,25 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="210"/>
-      <c r="T11" s="271"/>
-      <c r="U11" s="271"/>
+      <c r="R11" s="226"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="275"/>
+      <c r="W11" s="227"/>
       <c r="X11" s="126"/>
       <c r="Y11" s="115"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="233" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="245" t="s">
+      <c r="B12" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="241">
+      <c r="C12" s="201">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -3550,7 +3529,7 @@
       <c r="E12" s="102">
         <v>0</v>
       </c>
-      <c r="F12" s="241">
+      <c r="F12" s="201">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -3561,17 +3540,17 @@
       <c r="H12" s="102">
         <v>0</v>
       </c>
-      <c r="I12" s="248">
+      <c r="I12" s="204">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
       <c r="J12" s="32">
         <v>0</v>
       </c>
-      <c r="K12" s="252">
-        <v>0</v>
-      </c>
-      <c r="L12" s="241">
+      <c r="K12" s="208">
+        <v>0</v>
+      </c>
+      <c r="L12" s="201">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -3585,20 +3564,20 @@
       <c r="O12" s="5"/>
       <c r="P12" s="116"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="274"/>
-      <c r="S12" s="210"/>
+      <c r="R12" s="226"/>
+      <c r="S12" s="170"/>
       <c r="T12" s="34"/>
-      <c r="U12" s="271"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="270"/>
+      <c r="U12" s="223"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
       <c r="X12" s="126"/>
       <c r="Y12" s="115"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="36"/>
     </row>
     <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
-      <c r="B13" s="246"/>
+      <c r="A13" s="234"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
@@ -3621,7 +3600,7 @@
       <c r="H13" s="76">
         <v>0</v>
       </c>
-      <c r="I13" s="249">
+      <c r="I13" s="205">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -3629,7 +3608,7 @@
         <f>$K$2-$H$2</f>
         <v>538</v>
       </c>
-      <c r="K13" s="261">
+      <c r="K13" s="213">
         <v>0</v>
       </c>
       <c r="L13" s="114">
@@ -3646,19 +3625,19 @@
       <c r="O13" s="5"/>
       <c r="P13" s="116"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="274"/>
-      <c r="S13" s="210"/>
+      <c r="R13" s="226"/>
+      <c r="S13" s="170"/>
       <c r="T13" s="130"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="270"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
       <c r="X13" s="126"/>
       <c r="Y13" s="115"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="190"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="113" t="s">
         <v>84</v>
       </c>
@@ -3682,14 +3661,14 @@
       <c r="H14" s="77">
         <v>0</v>
       </c>
-      <c r="I14" s="260">
+      <c r="I14" s="212">
         <v>0</v>
       </c>
       <c r="J14" s="56">
         <f>$K$2-$H$2-0.5*$P$2</f>
         <v>528</v>
       </c>
-      <c r="K14" s="262">
+      <c r="K14" s="214">
         <v>0</v>
       </c>
       <c r="L14" s="53">
@@ -3717,7 +3696,7 @@
       <c r="AI14" s="36"/>
     </row>
     <row r="15" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="233" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="167" t="s">
@@ -3752,7 +3731,7 @@
         <f>O2+G2</f>
         <v>420</v>
       </c>
-      <c r="K15" s="252">
+      <c r="K15" s="208">
         <v>0</v>
       </c>
       <c r="L15" s="100">
@@ -3780,7 +3759,7 @@
       <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="112" t="s">
         <v>29</v>
       </c>
@@ -3813,7 +3792,7 @@
         <f>G16+I2</f>
         <v>420</v>
       </c>
-      <c r="K16" s="261">
+      <c r="K16" s="213">
         <v>0</v>
       </c>
       <c r="L16" s="50">
@@ -3841,7 +3820,7 @@
       <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="112" t="s">
         <v>31</v>
       </c>
@@ -3873,7 +3852,7 @@
       <c r="J17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="250" t="s">
+      <c r="K17" s="206" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="50" t="s">
@@ -3899,7 +3878,7 @@
       <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="201"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="168" t="s">
         <v>32</v>
       </c>
@@ -3932,7 +3911,7 @@
         <f>G2/2+L2/2+O2</f>
         <v>216</v>
       </c>
-      <c r="K18" s="262">
+      <c r="K18" s="214">
         <v>0</v>
       </c>
       <c r="L18" s="53">
@@ -3959,7 +3938,7 @@
       <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="254" t="s">
+      <c r="A19" s="235" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="167" t="s">
@@ -3969,7 +3948,7 @@
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="D19" s="253">
+      <c r="D19" s="209">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
@@ -3980,29 +3959,29 @@
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="G19" s="253">
+      <c r="G19" s="209">
         <f>$M$2/2</f>
         <v>12.5</v>
       </c>
       <c r="H19" s="102">
         <v>0</v>
       </c>
-      <c r="I19" s="247">
+      <c r="I19" s="203">
         <f>-$L$2/2</f>
         <v>-6</v>
       </c>
-      <c r="J19" s="253">
+      <c r="J19" s="209">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
-      <c r="K19" s="252">
+      <c r="K19" s="208">
         <v>0</v>
       </c>
       <c r="L19" s="100">
         <f>$L$2/2</f>
         <v>6</v>
       </c>
-      <c r="M19" s="253">
+      <c r="M19" s="209">
         <f>-$M$2/2</f>
         <v>-12.5</v>
       </c>
@@ -4023,11 +4002,11 @@
       <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="255"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="259">
+      <c r="C20" s="211">
         <f>-0.5*$Q$2</f>
         <v>-5</v>
       </c>
@@ -4053,7 +4032,7 @@
       <c r="J20" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="251" t="s">
+      <c r="K20" s="207" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="53" t="s">
@@ -4079,7 +4058,7 @@
       <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="233" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="167" t="s">
@@ -4113,7 +4092,7 @@
         <f>J2</f>
         <v>12</v>
       </c>
-      <c r="K21" s="252">
+      <c r="K21" s="208">
         <v>0</v>
       </c>
       <c r="L21" s="100">
@@ -4136,7 +4115,7 @@
       <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="112" t="s">
         <v>30</v>
       </c>
@@ -4170,7 +4149,7 @@
         <f>K2</f>
         <v>550</v>
       </c>
-      <c r="K22" s="261">
+      <c r="K22" s="213">
         <v>0</v>
       </c>
       <c r="L22" s="107">
@@ -4193,7 +4172,7 @@
       <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="201"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="112" t="s">
         <v>31</v>
       </c>
@@ -4225,7 +4204,7 @@
       <c r="J23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="250" t="s">
+      <c r="K23" s="206" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="50" t="s">
@@ -4246,7 +4225,7 @@
       <c r="AI23" s="36"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="201"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="112" t="s">
         <v>32</v>
       </c>
@@ -4272,7 +4251,7 @@
       <c r="H24" s="77">
         <v>0</v>
       </c>
-      <c r="I24" s="260">
+      <c r="I24" s="212">
         <f>$N$2+$L$2/2</f>
         <v>6</v>
       </c>
@@ -4280,7 +4259,7 @@
         <f>K2-H2</f>
         <v>538</v>
       </c>
-      <c r="K24" s="262">
+      <c r="K24" s="214">
         <v>0</v>
       </c>
       <c r="L24" s="103">
@@ -4303,20 +4282,20 @@
       <c r="AI24" s="36"/>
     </row>
     <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="238"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="239"/>
+      <c r="A25" s="234"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="199"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="15"/>
@@ -4326,8 +4305,8 @@
       <c r="AI25" s="36"/>
     </row>
     <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
-      <c r="B26" s="199"/>
+      <c r="A26" s="234"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="114"/>
       <c r="D26" s="33"/>
       <c r="E26" s="106"/>
@@ -4349,18 +4328,18 @@
       <c r="AI26" s="36"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="190"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="243"/>
+      <c r="A27" s="241"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="56"/>
       <c r="E27" s="104"/>
-      <c r="F27" s="243"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="56"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="243"/>
+      <c r="I27" s="202"/>
       <c r="J27" s="56"/>
       <c r="K27" s="104"/>
-      <c r="L27" s="243"/>
+      <c r="L27" s="202"/>
       <c r="M27" s="56"/>
       <c r="N27" s="104"/>
       <c r="O27" s="5"/>
@@ -4374,17 +4353,17 @@
     <row r="28" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="165"/>
-      <c r="C28" s="264"/>
+      <c r="C28" s="216"/>
       <c r="D28" s="165"/>
-      <c r="E28" s="264"/>
+      <c r="E28" s="216"/>
       <c r="F28" s="165"/>
-      <c r="G28" s="264"/>
+      <c r="G28" s="216"/>
       <c r="H28" s="165"/>
-      <c r="I28" s="264"/>
+      <c r="I28" s="216"/>
       <c r="J28" s="165"/>
-      <c r="K28" s="264"/>
+      <c r="K28" s="216"/>
       <c r="L28" s="165"/>
-      <c r="M28" s="264"/>
+      <c r="M28" s="216"/>
       <c r="N28" s="166"/>
       <c r="O28" s="141"/>
       <c r="P28" s="5"/>
@@ -4400,24 +4379,24 @@
       <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="244" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="195"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="245"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="246"/>
       <c r="O29" s="46"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
@@ -4426,42 +4405,42 @@
       <c r="AI29" s="36"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="176"/>
-      <c r="B30" s="189" t="s">
+      <c r="A30" s="253"/>
+      <c r="B30" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="247" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="186"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="249"/>
+      <c r="M30" s="249"/>
+      <c r="N30" s="250"/>
       <c r="O30" s="46"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="204" t="s">
+      <c r="R30" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205"/>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="206"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="232"/>
     </row>
     <row r="31" spans="1:35" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="176"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="184"/>
+      <c r="A31" s="253"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="248"/>
       <c r="D31" s="68" t="s">
         <v>74</v>
       </c>
@@ -4493,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="N31" s="64" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O31" s="47"/>
       <c r="P31" s="1"/>
@@ -4503,10 +4482,10 @@
       <c r="S31" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="202" t="s">
+      <c r="T31" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="203"/>
+      <c r="U31" s="229"/>
       <c r="V31" s="44" t="s">
         <v>106</v>
       </c>
@@ -4518,7 +4497,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="176"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="65" t="s">
         <v>72</v>
       </c>
@@ -4584,7 +4563,7 @@
       <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="176"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="66" t="s">
         <v>50</v>
       </c>
@@ -4635,7 +4614,7 @@
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="176"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="66" t="s">
         <v>42</v>
       </c>
@@ -4682,7 +4661,7 @@
       <c r="X34" s="158"/>
     </row>
     <row r="35" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="176"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="66" t="s">
         <v>43</v>
       </c>
@@ -4719,7 +4698,7 @@
       <c r="X35" s="158"/>
     </row>
     <row r="36" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="176"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="66" t="s">
         <v>44</v>
       </c>
@@ -4761,7 +4740,7 @@
       <c r="X36" s="158"/>
     </row>
     <row r="37" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
+      <c r="A37" s="253"/>
       <c r="B37" s="66" t="s">
         <v>45</v>
       </c>
@@ -4791,7 +4770,7 @@
       <c r="X37" s="158"/>
     </row>
     <row r="38" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="177"/>
+      <c r="A38" s="254"/>
       <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
@@ -4894,7 +4873,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="237" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -4910,59 +4889,59 @@
       <c r="E41" s="94">
         <v>0</v>
       </c>
-      <c r="F41" s="169" t="s">
+      <c r="F41" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="170"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="169" t="s">
+      <c r="G41" s="272"/>
+      <c r="H41" s="273"/>
+      <c r="I41" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="170"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="169" t="s">
+      <c r="J41" s="272"/>
+      <c r="K41" s="273"/>
+      <c r="L41" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="170"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="169" t="s">
+      <c r="M41" s="272"/>
+      <c r="N41" s="273"/>
+      <c r="O41" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="170"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="169" t="s">
+      <c r="P41" s="272"/>
+      <c r="Q41" s="273"/>
+      <c r="R41" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="170"/>
-      <c r="T41" s="171"/>
-      <c r="U41" s="169" t="s">
+      <c r="S41" s="272"/>
+      <c r="T41" s="273"/>
+      <c r="U41" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V41" s="170"/>
-      <c r="W41" s="171"/>
-      <c r="X41" s="169" t="s">
+      <c r="V41" s="272"/>
+      <c r="W41" s="273"/>
+      <c r="X41" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="170"/>
-      <c r="Z41" s="171"/>
-      <c r="AA41" s="169" t="s">
+      <c r="Y41" s="272"/>
+      <c r="Z41" s="273"/>
+      <c r="AA41" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB41" s="170"/>
-      <c r="AC41" s="171"/>
-      <c r="AD41" s="169" t="s">
+      <c r="AB41" s="272"/>
+      <c r="AC41" s="273"/>
+      <c r="AD41" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE41" s="170"/>
-      <c r="AF41" s="171"/>
-      <c r="AG41" s="169" t="s">
+      <c r="AE41" s="272"/>
+      <c r="AF41" s="273"/>
+      <c r="AG41" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH41" s="170"/>
-      <c r="AI41" s="171"/>
+      <c r="AH41" s="272"/>
+      <c r="AI41" s="273"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="173"/>
+      <c r="A42" s="238"/>
       <c r="B42" s="79" t="s">
         <v>12</v>
       </c>
@@ -5067,7 +5046,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="207"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="26" t="s">
         <v>58</v>
       </c>
@@ -5194,7 +5173,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="207"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="29" t="s">
         <v>13</v>
       </c>
@@ -5321,7 +5300,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="207"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="29" t="s">
         <v>14</v>
       </c>
@@ -5448,7 +5427,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="207"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="29" t="s">
         <v>15</v>
       </c>
@@ -5575,7 +5554,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="207"/>
+      <c r="A47" s="239"/>
       <c r="B47" s="29" t="s">
         <v>16</v>
       </c>
@@ -5702,7 +5681,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="207"/>
+      <c r="A48" s="239"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -5829,7 +5808,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="208"/>
+      <c r="A49" s="240"/>
       <c r="B49" s="31" t="s">
         <v>18</v>
       </c>
@@ -5993,24 +5972,24 @@
       <c r="AI50" s="15"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="260" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="179"/>
-      <c r="K51" s="179"/>
-      <c r="L51" s="179"/>
-      <c r="M51" s="179"/>
-      <c r="N51" s="180"/>
+      <c r="C51" s="262"/>
+      <c r="D51" s="262"/>
+      <c r="E51" s="262"/>
+      <c r="F51" s="262"/>
+      <c r="G51" s="262"/>
+      <c r="H51" s="262"/>
+      <c r="I51" s="262"/>
+      <c r="J51" s="262"/>
+      <c r="K51" s="262"/>
+      <c r="L51" s="262"/>
+      <c r="M51" s="262"/>
+      <c r="N51" s="263"/>
       <c r="O51" s="46"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="1"/>
@@ -6019,48 +5998,46 @@
       <c r="AI51" s="36"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="176"/>
-      <c r="B52" s="189" t="s">
+      <c r="A52" s="253"/>
+      <c r="B52" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="183" t="s">
+      <c r="C52" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="185" t="s">
+      <c r="D52" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="185"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="186"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="249"/>
+      <c r="G52" s="249"/>
+      <c r="H52" s="249"/>
+      <c r="I52" s="249"/>
+      <c r="J52" s="249"/>
+      <c r="K52" s="249"/>
+      <c r="L52" s="249"/>
+      <c r="M52" s="249"/>
+      <c r="N52" s="250"/>
       <c r="O52" s="46"/>
       <c r="P52" s="1"/>
-      <c r="R52" s="213"/>
-      <c r="S52" s="213"/>
-      <c r="T52" s="214"/>
-      <c r="U52" s="223" t="s">
-        <v>120</v>
-      </c>
-      <c r="V52" s="215" t="s">
-        <v>124</v>
-      </c>
-      <c r="W52" s="231">
+      <c r="R52" s="173"/>
+      <c r="S52" s="173"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="183"/>
+      <c r="V52" s="175" t="s">
+        <v>117</v>
+      </c>
+      <c r="W52" s="191">
         <v>20</v>
       </c>
       <c r="X52" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:35" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="176"/>
-      <c r="B53" s="190"/>
-      <c r="C53" s="184"/>
+      <c r="A53" s="253"/>
+      <c r="B53" s="241"/>
+      <c r="C53" s="248"/>
       <c r="D53" s="68" t="s">
         <v>74</v>
       </c>
@@ -6096,19 +6073,17 @@
       </c>
       <c r="O53" s="47"/>
       <c r="P53" s="1"/>
-      <c r="R53" s="216"/>
-      <c r="S53" s="216"/>
-      <c r="T53" s="211"/>
-      <c r="U53" s="224" t="s">
-        <v>122</v>
-      </c>
-      <c r="V53" s="230" t="s">
-        <v>128</v>
-      </c>
-      <c r="W53" s="217"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="171"/>
+      <c r="U53" s="184"/>
+      <c r="V53" s="190" t="s">
+        <v>121</v>
+      </c>
+      <c r="W53" s="177"/>
     </row>
     <row r="54" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="176"/>
+      <c r="A54" s="253"/>
       <c r="B54" s="65" t="s">
         <v>49</v>
       </c>
@@ -6137,18 +6112,14 @@
       <c r="O54" s="34"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
-      <c r="R54" s="218"/>
-      <c r="S54" s="234" t="s">
+      <c r="R54" s="178"/>
+      <c r="S54" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="T54" s="235" t="s">
-        <v>116</v>
-      </c>
-      <c r="U54" s="224" t="s">
-        <v>121</v>
-      </c>
-      <c r="V54" s="212"/>
-      <c r="W54" s="217"/>
+      <c r="T54" s="195"/>
+      <c r="U54" s="184"/>
+      <c r="V54" s="172"/>
+      <c r="W54" s="177"/>
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
       <c r="AA54" s="18"/>
@@ -6161,7 +6132,7 @@
       <c r="AH54" s="18"/>
     </row>
     <row r="55" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="176"/>
+      <c r="A55" s="253"/>
       <c r="B55" s="66" t="s">
         <v>50</v>
       </c>
@@ -6190,20 +6161,18 @@
       <c r="O55" s="34"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="219"/>
-      <c r="S55" s="219" t="s">
+      <c r="R55" s="179"/>
+      <c r="S55" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="T55" s="235" t="s">
-        <v>117</v>
-      </c>
-      <c r="U55" s="225"/>
-      <c r="V55" s="212"/>
-      <c r="W55" s="233">
+      <c r="T55" s="195"/>
+      <c r="U55" s="185"/>
+      <c r="V55" s="172"/>
+      <c r="W55" s="193">
         <v>18</v>
       </c>
       <c r="X55" s="35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -6217,7 +6186,7 @@
       <c r="AH55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="176"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="66" t="s">
         <v>42</v>
       </c>
@@ -6246,20 +6215,18 @@
       <c r="O56" s="34"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="37"/>
-      <c r="R56" s="219"/>
-      <c r="S56" s="219" t="s">
+      <c r="R56" s="179"/>
+      <c r="S56" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="T56" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="U56" s="226"/>
-      <c r="V56" s="212"/>
-      <c r="W56" s="220"/>
+      <c r="T56" s="195"/>
+      <c r="U56" s="186"/>
+      <c r="V56" s="172"/>
+      <c r="W56" s="180"/>
       <c r="X56" s="36"/>
     </row>
     <row r="57" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
@@ -6288,16 +6255,16 @@
       <c r="O57" s="34"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="37"/>
-      <c r="R57" s="219"/>
-      <c r="S57" s="219"/>
-      <c r="T57" s="235"/>
-      <c r="U57" s="227"/>
-      <c r="V57" s="212"/>
-      <c r="W57" s="217"/>
+      <c r="R57" s="179"/>
+      <c r="S57" s="179"/>
+      <c r="T57" s="195"/>
+      <c r="U57" s="187"/>
+      <c r="V57" s="172"/>
+      <c r="W57" s="177"/>
       <c r="X57" s="115"/>
     </row>
     <row r="58" spans="1:35" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="176"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="66" t="s">
         <v>44</v>
       </c>
@@ -6316,25 +6283,23 @@
       <c r="O58" s="34"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="37"/>
-      <c r="R58" s="221"/>
-      <c r="S58" s="221" t="s">
+      <c r="R58" s="181"/>
+      <c r="S58" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="T58" s="236" t="s">
-        <v>119</v>
-      </c>
-      <c r="U58" s="228" t="str">
+      <c r="T58" s="196"/>
+      <c r="U58" s="188" t="str">
         <f>"Конструкция "&amp;$C$2&amp;"а "&amp;$D$2</f>
         <v>Конструкция раскоса Р-3</v>
       </c>
-      <c r="V58" s="232" t="s">
-        <v>125</v>
-      </c>
-      <c r="W58" s="222"/>
+      <c r="V58" s="192" t="s">
+        <v>118</v>
+      </c>
+      <c r="W58" s="182"/>
       <c r="X58" s="115"/>
     </row>
     <row r="59" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="176"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="66" t="s">
         <v>45</v>
       </c>
@@ -6357,7 +6322,7 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="177"/>
+      <c r="A60" s="254"/>
       <c r="B60" s="67" t="s">
         <v>46</v>
       </c>
@@ -6442,7 +6407,7 @@
       <c r="AI62" s="22"/>
     </row>
     <row r="63" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="237" t="s">
         <v>52</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -6459,59 +6424,59 @@
       <c r="E63" s="91">
         <v>0</v>
       </c>
-      <c r="F63" s="169" t="s">
+      <c r="F63" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="170"/>
-      <c r="H63" s="171"/>
-      <c r="I63" s="169" t="s">
+      <c r="G63" s="272"/>
+      <c r="H63" s="273"/>
+      <c r="I63" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="170"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="169" t="s">
+      <c r="J63" s="272"/>
+      <c r="K63" s="273"/>
+      <c r="L63" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M63" s="170"/>
-      <c r="N63" s="171"/>
-      <c r="O63" s="169" t="s">
+      <c r="M63" s="272"/>
+      <c r="N63" s="273"/>
+      <c r="O63" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="170"/>
-      <c r="Q63" s="171"/>
-      <c r="R63" s="169" t="s">
+      <c r="P63" s="272"/>
+      <c r="Q63" s="273"/>
+      <c r="R63" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S63" s="170"/>
-      <c r="T63" s="171"/>
-      <c r="U63" s="169" t="s">
+      <c r="S63" s="272"/>
+      <c r="T63" s="273"/>
+      <c r="U63" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V63" s="170"/>
-      <c r="W63" s="171"/>
-      <c r="X63" s="169" t="s">
+      <c r="V63" s="272"/>
+      <c r="W63" s="273"/>
+      <c r="X63" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y63" s="170"/>
-      <c r="Z63" s="171"/>
-      <c r="AA63" s="169" t="s">
+      <c r="Y63" s="272"/>
+      <c r="Z63" s="273"/>
+      <c r="AA63" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB63" s="170"/>
-      <c r="AC63" s="171"/>
-      <c r="AD63" s="169" t="s">
+      <c r="AB63" s="272"/>
+      <c r="AC63" s="273"/>
+      <c r="AD63" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE63" s="170"/>
-      <c r="AF63" s="171"/>
-      <c r="AG63" s="169" t="s">
+      <c r="AE63" s="272"/>
+      <c r="AF63" s="273"/>
+      <c r="AG63" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH63" s="170"/>
-      <c r="AI63" s="171"/>
+      <c r="AH63" s="272"/>
+      <c r="AI63" s="273"/>
     </row>
     <row r="64" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="173"/>
+      <c r="A64" s="238"/>
       <c r="B64" s="72" t="s">
         <v>12</v>
       </c>
@@ -6616,7 +6581,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A65" s="173"/>
+      <c r="A65" s="238"/>
       <c r="B65" s="26" t="s">
         <v>58</v>
       </c>
@@ -6743,7 +6708,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A66" s="173"/>
+      <c r="A66" s="238"/>
       <c r="B66" s="29" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6835,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A67" s="173"/>
+      <c r="A67" s="238"/>
       <c r="B67" s="29" t="s">
         <v>14</v>
       </c>
@@ -6997,7 +6962,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A68" s="173"/>
+      <c r="A68" s="238"/>
       <c r="B68" s="29" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7089,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A69" s="173"/>
+      <c r="A69" s="238"/>
       <c r="B69" s="29" t="s">
         <v>16</v>
       </c>
@@ -7251,7 +7216,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A70" s="173"/>
+      <c r="A70" s="238"/>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
@@ -7378,7 +7343,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="174"/>
+      <c r="A71" s="266"/>
       <c r="B71" s="31" t="s">
         <v>18</v>
       </c>
@@ -7542,24 +7507,24 @@
       <c r="AI72" s="15"/>
     </row>
     <row r="73" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="175" t="s">
+      <c r="A73" s="260" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="178" t="s">
+      <c r="B73" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="179"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="179"/>
-      <c r="M73" s="179"/>
-      <c r="N73" s="180"/>
+      <c r="C73" s="262"/>
+      <c r="D73" s="262"/>
+      <c r="E73" s="262"/>
+      <c r="F73" s="262"/>
+      <c r="G73" s="262"/>
+      <c r="H73" s="262"/>
+      <c r="I73" s="262"/>
+      <c r="J73" s="262"/>
+      <c r="K73" s="262"/>
+      <c r="L73" s="262"/>
+      <c r="M73" s="262"/>
+      <c r="N73" s="263"/>
       <c r="O73" s="46"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="1"/>
@@ -7568,33 +7533,33 @@
       <c r="AI73" s="36"/>
     </row>
     <row r="74" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="176"/>
-      <c r="B74" s="181" t="s">
+      <c r="A74" s="253"/>
+      <c r="B74" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="183" t="s">
+      <c r="C74" s="247" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="185" t="s">
+      <c r="D74" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="185"/>
-      <c r="L74" s="185"/>
-      <c r="M74" s="185"/>
-      <c r="N74" s="186"/>
+      <c r="E74" s="249"/>
+      <c r="F74" s="249"/>
+      <c r="G74" s="249"/>
+      <c r="H74" s="249"/>
+      <c r="I74" s="249"/>
+      <c r="J74" s="249"/>
+      <c r="K74" s="249"/>
+      <c r="L74" s="249"/>
+      <c r="M74" s="249"/>
+      <c r="N74" s="250"/>
       <c r="O74" s="46"/>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:35" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="176"/>
-      <c r="B75" s="182"/>
-      <c r="C75" s="184"/>
+      <c r="A75" s="253"/>
+      <c r="B75" s="265"/>
+      <c r="C75" s="248"/>
       <c r="D75" s="68" t="s">
         <v>74</v>
       </c>
@@ -7632,7 +7597,7 @@
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="176"/>
+      <c r="A76" s="253"/>
       <c r="B76" s="65" t="s">
         <v>49</v>
       </c>
@@ -7680,7 +7645,7 @@
       <c r="AH76" s="18"/>
     </row>
     <row r="77" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
+      <c r="A77" s="253"/>
       <c r="B77" s="66" t="s">
         <v>50</v>
       </c>
@@ -7728,7 +7693,7 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="176"/>
+      <c r="A78" s="253"/>
       <c r="B78" s="66" t="s">
         <v>42</v>
       </c>
@@ -7759,7 +7724,7 @@
       <c r="U78" s="1"/>
     </row>
     <row r="79" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="176"/>
+      <c r="A79" s="253"/>
       <c r="B79" s="66" t="s">
         <v>43</v>
       </c>
@@ -7790,7 +7755,7 @@
       <c r="U79" s="1"/>
     </row>
     <row r="80" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
+      <c r="A80" s="253"/>
       <c r="B80" s="66" t="s">
         <v>44</v>
       </c>
@@ -7815,7 +7780,7 @@
       <c r="U80" s="1"/>
     </row>
     <row r="81" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
+      <c r="A81" s="253"/>
       <c r="B81" s="66" t="s">
         <v>45</v>
       </c>
@@ -7838,7 +7803,7 @@
       <c r="U81" s="1"/>
     </row>
     <row r="82" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="177"/>
+      <c r="A82" s="254"/>
       <c r="B82" s="67" t="s">
         <v>46</v>
       </c>
@@ -7923,7 +7888,7 @@
       <c r="AI84" s="22"/>
     </row>
     <row r="85" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="237" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="24" t="s">
@@ -7940,59 +7905,59 @@
       <c r="E85" s="94">
         <v>0</v>
       </c>
-      <c r="F85" s="169" t="s">
+      <c r="F85" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="170"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="169" t="s">
+      <c r="G85" s="272"/>
+      <c r="H85" s="273"/>
+      <c r="I85" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="170"/>
-      <c r="K85" s="171"/>
-      <c r="L85" s="169" t="s">
+      <c r="J85" s="272"/>
+      <c r="K85" s="273"/>
+      <c r="L85" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M85" s="170"/>
-      <c r="N85" s="171"/>
-      <c r="O85" s="169" t="s">
+      <c r="M85" s="272"/>
+      <c r="N85" s="273"/>
+      <c r="O85" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P85" s="170"/>
-      <c r="Q85" s="171"/>
-      <c r="R85" s="169" t="s">
+      <c r="P85" s="272"/>
+      <c r="Q85" s="273"/>
+      <c r="R85" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S85" s="170"/>
-      <c r="T85" s="171"/>
-      <c r="U85" s="169" t="s">
+      <c r="S85" s="272"/>
+      <c r="T85" s="273"/>
+      <c r="U85" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="170"/>
-      <c r="W85" s="171"/>
-      <c r="X85" s="169" t="s">
+      <c r="V85" s="272"/>
+      <c r="W85" s="273"/>
+      <c r="X85" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y85" s="170"/>
-      <c r="Z85" s="171"/>
-      <c r="AA85" s="169" t="s">
+      <c r="Y85" s="272"/>
+      <c r="Z85" s="273"/>
+      <c r="AA85" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB85" s="170"/>
-      <c r="AC85" s="171"/>
-      <c r="AD85" s="169" t="s">
+      <c r="AB85" s="272"/>
+      <c r="AC85" s="273"/>
+      <c r="AD85" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE85" s="170"/>
-      <c r="AF85" s="171"/>
-      <c r="AG85" s="169" t="s">
+      <c r="AE85" s="272"/>
+      <c r="AF85" s="273"/>
+      <c r="AG85" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH85" s="170"/>
-      <c r="AI85" s="171"/>
+      <c r="AH85" s="272"/>
+      <c r="AI85" s="273"/>
     </row>
     <row r="86" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="173"/>
+      <c r="A86" s="238"/>
       <c r="B86" s="72" t="s">
         <v>12</v>
       </c>
@@ -8097,7 +8062,7 @@
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A87" s="173"/>
+      <c r="A87" s="238"/>
       <c r="B87" s="26" t="s">
         <v>58</v>
       </c>
@@ -8224,7 +8189,7 @@
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A88" s="173"/>
+      <c r="A88" s="238"/>
       <c r="B88" s="29" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8316,7 @@
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A89" s="173"/>
+      <c r="A89" s="238"/>
       <c r="B89" s="29" t="s">
         <v>14</v>
       </c>
@@ -8478,7 +8443,7 @@
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A90" s="173"/>
+      <c r="A90" s="238"/>
       <c r="B90" s="29" t="s">
         <v>15</v>
       </c>
@@ -8605,7 +8570,7 @@
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A91" s="173"/>
+      <c r="A91" s="238"/>
       <c r="B91" s="29" t="s">
         <v>16</v>
       </c>
@@ -8732,7 +8697,7 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A92" s="173"/>
+      <c r="A92" s="238"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -8859,7 +8824,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="174"/>
+      <c r="A93" s="266"/>
       <c r="B93" s="31" t="s">
         <v>18</v>
       </c>
@@ -8987,24 +8952,24 @@
     </row>
     <row r="94" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="175" t="s">
+      <c r="A95" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="178" t="s">
+      <c r="B95" s="261" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="179"/>
-      <c r="D95" s="179"/>
-      <c r="E95" s="179"/>
-      <c r="F95" s="179"/>
-      <c r="G95" s="179"/>
-      <c r="H95" s="179"/>
-      <c r="I95" s="179"/>
-      <c r="J95" s="179"/>
-      <c r="K95" s="179"/>
-      <c r="L95" s="179"/>
-      <c r="M95" s="179"/>
-      <c r="N95" s="180"/>
+      <c r="C95" s="262"/>
+      <c r="D95" s="262"/>
+      <c r="E95" s="262"/>
+      <c r="F95" s="262"/>
+      <c r="G95" s="262"/>
+      <c r="H95" s="262"/>
+      <c r="I95" s="262"/>
+      <c r="J95" s="262"/>
+      <c r="K95" s="262"/>
+      <c r="L95" s="262"/>
+      <c r="M95" s="262"/>
+      <c r="N95" s="263"/>
       <c r="O95" s="46"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="1"/>
@@ -9013,33 +8978,33 @@
       <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="176"/>
-      <c r="B96" s="181" t="s">
+      <c r="A96" s="253"/>
+      <c r="B96" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="183" t="s">
+      <c r="C96" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="185" t="s">
+      <c r="D96" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="185"/>
-      <c r="F96" s="185"/>
-      <c r="G96" s="185"/>
-      <c r="H96" s="185"/>
-      <c r="I96" s="185"/>
-      <c r="J96" s="185"/>
-      <c r="K96" s="185"/>
-      <c r="L96" s="185"/>
-      <c r="M96" s="185"/>
-      <c r="N96" s="186"/>
+      <c r="E96" s="249"/>
+      <c r="F96" s="249"/>
+      <c r="G96" s="249"/>
+      <c r="H96" s="249"/>
+      <c r="I96" s="249"/>
+      <c r="J96" s="249"/>
+      <c r="K96" s="249"/>
+      <c r="L96" s="249"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="250"/>
       <c r="O96" s="46"/>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="176"/>
-      <c r="B97" s="182"/>
-      <c r="C97" s="184"/>
+      <c r="A97" s="253"/>
+      <c r="B97" s="265"/>
+      <c r="C97" s="248"/>
       <c r="D97" s="68" t="s">
         <v>74</v>
       </c>
@@ -9077,7 +9042,7 @@
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="176"/>
+      <c r="A98" s="253"/>
       <c r="B98" s="65" t="s">
         <v>49</v>
       </c>
@@ -9129,7 +9094,7 @@
       <c r="AH98" s="18"/>
     </row>
     <row r="99" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="176"/>
+      <c r="A99" s="253"/>
       <c r="B99" s="66" t="s">
         <v>50</v>
       </c>
@@ -9181,7 +9146,7 @@
       <c r="AH99" s="1"/>
     </row>
     <row r="100" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="176"/>
+      <c r="A100" s="253"/>
       <c r="B100" s="66" t="s">
         <v>42</v>
       </c>
@@ -9220,7 +9185,7 @@
       <c r="U100" s="1"/>
     </row>
     <row r="101" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="176"/>
+      <c r="A101" s="253"/>
       <c r="B101" s="66" t="s">
         <v>43</v>
       </c>
@@ -9259,7 +9224,7 @@
       <c r="U101" s="1"/>
     </row>
     <row r="102" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="176"/>
+      <c r="A102" s="253"/>
       <c r="B102" s="66" t="s">
         <v>44</v>
       </c>
@@ -9284,7 +9249,7 @@
       <c r="U102" s="1"/>
     </row>
     <row r="103" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A103" s="176"/>
+      <c r="A103" s="253"/>
       <c r="B103" s="66" t="s">
         <v>45</v>
       </c>
@@ -9307,7 +9272,7 @@
       <c r="U103" s="1"/>
     </row>
     <row r="104" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="177"/>
+      <c r="A104" s="254"/>
       <c r="B104" s="67" t="s">
         <v>46</v>
       </c>
@@ -9392,7 +9357,7 @@
       <c r="AI106" s="22"/>
     </row>
     <row r="107" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="172" t="s">
+      <c r="A107" s="237" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -9407,59 +9372,59 @@
       <c r="E107" s="94">
         <v>0</v>
       </c>
-      <c r="F107" s="169" t="s">
+      <c r="F107" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="170"/>
-      <c r="H107" s="171"/>
-      <c r="I107" s="169" t="s">
+      <c r="G107" s="272"/>
+      <c r="H107" s="273"/>
+      <c r="I107" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J107" s="170"/>
-      <c r="K107" s="171"/>
-      <c r="L107" s="169" t="s">
+      <c r="J107" s="272"/>
+      <c r="K107" s="273"/>
+      <c r="L107" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M107" s="170"/>
-      <c r="N107" s="171"/>
-      <c r="O107" s="169" t="s">
+      <c r="M107" s="272"/>
+      <c r="N107" s="273"/>
+      <c r="O107" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P107" s="170"/>
-      <c r="Q107" s="171"/>
-      <c r="R107" s="169" t="s">
+      <c r="P107" s="272"/>
+      <c r="Q107" s="273"/>
+      <c r="R107" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S107" s="170"/>
-      <c r="T107" s="171"/>
-      <c r="U107" s="169" t="s">
+      <c r="S107" s="272"/>
+      <c r="T107" s="273"/>
+      <c r="U107" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V107" s="170"/>
-      <c r="W107" s="171"/>
-      <c r="X107" s="169" t="s">
+      <c r="V107" s="272"/>
+      <c r="W107" s="273"/>
+      <c r="X107" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y107" s="170"/>
-      <c r="Z107" s="171"/>
-      <c r="AA107" s="169" t="s">
+      <c r="Y107" s="272"/>
+      <c r="Z107" s="273"/>
+      <c r="AA107" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB107" s="170"/>
-      <c r="AC107" s="171"/>
-      <c r="AD107" s="169" t="s">
+      <c r="AB107" s="272"/>
+      <c r="AC107" s="273"/>
+      <c r="AD107" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE107" s="170"/>
-      <c r="AF107" s="171"/>
-      <c r="AG107" s="169" t="s">
+      <c r="AE107" s="272"/>
+      <c r="AF107" s="273"/>
+      <c r="AG107" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH107" s="170"/>
-      <c r="AI107" s="171"/>
+      <c r="AH107" s="272"/>
+      <c r="AI107" s="273"/>
     </row>
     <row r="108" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="173"/>
+      <c r="A108" s="238"/>
       <c r="B108" s="72" t="s">
         <v>70</v>
       </c>
@@ -9564,7 +9529,7 @@
       </c>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A109" s="173"/>
+      <c r="A109" s="238"/>
       <c r="B109" s="26" t="s">
         <v>58</v>
       </c>
@@ -9691,7 +9656,7 @@
       </c>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A110" s="173"/>
+      <c r="A110" s="238"/>
       <c r="B110" s="29" t="s">
         <v>13</v>
       </c>
@@ -9818,7 +9783,7 @@
       </c>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A111" s="173"/>
+      <c r="A111" s="238"/>
       <c r="B111" s="29" t="s">
         <v>14</v>
       </c>
@@ -9945,7 +9910,7 @@
       </c>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A112" s="173"/>
+      <c r="A112" s="238"/>
       <c r="B112" s="29" t="s">
         <v>15</v>
       </c>
@@ -10072,7 +10037,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A113" s="173"/>
+      <c r="A113" s="238"/>
       <c r="B113" s="29" t="s">
         <v>16</v>
       </c>
@@ -10199,7 +10164,7 @@
       </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A114" s="173"/>
+      <c r="A114" s="238"/>
       <c r="B114" s="29" t="s">
         <v>17</v>
       </c>
@@ -10326,7 +10291,7 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="174"/>
+      <c r="A115" s="266"/>
       <c r="B115" s="31" t="s">
         <v>18</v>
       </c>
@@ -10454,24 +10419,24 @@
     </row>
     <row r="116" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="175" t="s">
+      <c r="A117" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="178" t="s">
+      <c r="B117" s="261" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="179"/>
-      <c r="D117" s="179"/>
-      <c r="E117" s="179"/>
-      <c r="F117" s="179"/>
-      <c r="G117" s="179"/>
-      <c r="H117" s="179"/>
-      <c r="I117" s="179"/>
-      <c r="J117" s="179"/>
-      <c r="K117" s="179"/>
-      <c r="L117" s="179"/>
-      <c r="M117" s="179"/>
-      <c r="N117" s="180"/>
+      <c r="C117" s="262"/>
+      <c r="D117" s="262"/>
+      <c r="E117" s="262"/>
+      <c r="F117" s="262"/>
+      <c r="G117" s="262"/>
+      <c r="H117" s="262"/>
+      <c r="I117" s="262"/>
+      <c r="J117" s="262"/>
+      <c r="K117" s="262"/>
+      <c r="L117" s="262"/>
+      <c r="M117" s="262"/>
+      <c r="N117" s="263"/>
       <c r="O117" s="46"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="1"/>
@@ -10480,33 +10445,33 @@
       <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="176"/>
-      <c r="B118" s="181" t="s">
+      <c r="A118" s="253"/>
+      <c r="B118" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="183" t="s">
+      <c r="C118" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="185" t="s">
+      <c r="D118" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="185"/>
-      <c r="F118" s="185"/>
-      <c r="G118" s="185"/>
-      <c r="H118" s="185"/>
-      <c r="I118" s="185"/>
-      <c r="J118" s="185"/>
-      <c r="K118" s="185"/>
-      <c r="L118" s="185"/>
-      <c r="M118" s="185"/>
-      <c r="N118" s="186"/>
+      <c r="E118" s="249"/>
+      <c r="F118" s="249"/>
+      <c r="G118" s="249"/>
+      <c r="H118" s="249"/>
+      <c r="I118" s="249"/>
+      <c r="J118" s="249"/>
+      <c r="K118" s="249"/>
+      <c r="L118" s="249"/>
+      <c r="M118" s="249"/>
+      <c r="N118" s="250"/>
       <c r="O118" s="46"/>
       <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:35" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="176"/>
-      <c r="B119" s="182"/>
-      <c r="C119" s="184"/>
+      <c r="A119" s="253"/>
+      <c r="B119" s="265"/>
+      <c r="C119" s="248"/>
       <c r="D119" s="68" t="s">
         <v>74</v>
       </c>
@@ -10544,7 +10509,7 @@
       <c r="P119" s="1"/>
     </row>
     <row r="120" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="176"/>
+      <c r="A120" s="253"/>
       <c r="B120" s="65" t="s">
         <v>49</v>
       </c>
@@ -10596,7 +10561,7 @@
       <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A121" s="176"/>
+      <c r="A121" s="253"/>
       <c r="B121" s="66" t="s">
         <v>50</v>
       </c>
@@ -10648,7 +10613,7 @@
       <c r="AH121" s="1"/>
     </row>
     <row r="122" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="176"/>
+      <c r="A122" s="253"/>
       <c r="B122" s="66" t="s">
         <v>42</v>
       </c>
@@ -10687,7 +10652,7 @@
       <c r="U122" s="1"/>
     </row>
     <row r="123" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" s="176"/>
+      <c r="A123" s="253"/>
       <c r="B123" s="66" t="s">
         <v>43</v>
       </c>
@@ -10726,7 +10691,7 @@
       <c r="U123" s="1"/>
     </row>
     <row r="124" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A124" s="176"/>
+      <c r="A124" s="253"/>
       <c r="B124" s="66" t="s">
         <v>44</v>
       </c>
@@ -10751,7 +10716,7 @@
       <c r="U124" s="1"/>
     </row>
     <row r="125" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A125" s="176"/>
+      <c r="A125" s="253"/>
       <c r="B125" s="66" t="s">
         <v>45</v>
       </c>
@@ -10774,7 +10739,7 @@
       <c r="U125" s="1"/>
     </row>
     <row r="126" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="177"/>
+      <c r="A126" s="254"/>
       <c r="B126" s="67" t="s">
         <v>46</v>
       </c>
@@ -10859,7 +10824,7 @@
       <c r="AI128" s="22"/>
     </row>
     <row r="129" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="172" t="s">
+      <c r="A129" s="237" t="s">
         <v>54</v>
       </c>
       <c r="B129" s="24" t="s">
@@ -10875,59 +10840,59 @@
       <c r="E129" s="94">
         <v>0</v>
       </c>
-      <c r="F129" s="169" t="s">
+      <c r="F129" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="170"/>
-      <c r="H129" s="171"/>
-      <c r="I129" s="169" t="s">
+      <c r="G129" s="272"/>
+      <c r="H129" s="273"/>
+      <c r="I129" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J129" s="170"/>
-      <c r="K129" s="171"/>
-      <c r="L129" s="169" t="s">
+      <c r="J129" s="272"/>
+      <c r="K129" s="273"/>
+      <c r="L129" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M129" s="170"/>
-      <c r="N129" s="171"/>
-      <c r="O129" s="169" t="s">
+      <c r="M129" s="272"/>
+      <c r="N129" s="273"/>
+      <c r="O129" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P129" s="170"/>
-      <c r="Q129" s="171"/>
-      <c r="R129" s="169" t="s">
+      <c r="P129" s="272"/>
+      <c r="Q129" s="273"/>
+      <c r="R129" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S129" s="170"/>
-      <c r="T129" s="171"/>
-      <c r="U129" s="169" t="s">
+      <c r="S129" s="272"/>
+      <c r="T129" s="273"/>
+      <c r="U129" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V129" s="170"/>
-      <c r="W129" s="171"/>
-      <c r="X129" s="169" t="s">
+      <c r="V129" s="272"/>
+      <c r="W129" s="273"/>
+      <c r="X129" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y129" s="170"/>
-      <c r="Z129" s="171"/>
-      <c r="AA129" s="169" t="s">
+      <c r="Y129" s="272"/>
+      <c r="Z129" s="273"/>
+      <c r="AA129" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB129" s="170"/>
-      <c r="AC129" s="171"/>
-      <c r="AD129" s="169" t="s">
+      <c r="AB129" s="272"/>
+      <c r="AC129" s="273"/>
+      <c r="AD129" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE129" s="170"/>
-      <c r="AF129" s="171"/>
-      <c r="AG129" s="169" t="s">
+      <c r="AE129" s="272"/>
+      <c r="AF129" s="273"/>
+      <c r="AG129" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH129" s="170"/>
-      <c r="AI129" s="171"/>
+      <c r="AH129" s="272"/>
+      <c r="AI129" s="273"/>
     </row>
     <row r="130" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="173"/>
+      <c r="A130" s="238"/>
       <c r="B130" s="72" t="s">
         <v>12</v>
       </c>
@@ -11032,7 +10997,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A131" s="173"/>
+      <c r="A131" s="238"/>
       <c r="B131" s="26" t="s">
         <v>58</v>
       </c>
@@ -11159,7 +11124,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A132" s="173"/>
+      <c r="A132" s="238"/>
       <c r="B132" s="29" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11251,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A133" s="173"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="29" t="s">
         <v>14</v>
       </c>
@@ -11413,7 +11378,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A134" s="173"/>
+      <c r="A134" s="238"/>
       <c r="B134" s="29" t="s">
         <v>15</v>
       </c>
@@ -11540,7 +11505,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A135" s="173"/>
+      <c r="A135" s="238"/>
       <c r="B135" s="29" t="s">
         <v>16</v>
       </c>
@@ -11667,7 +11632,7 @@
       </c>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A136" s="173"/>
+      <c r="A136" s="238"/>
       <c r="B136" s="29" t="s">
         <v>17</v>
       </c>
@@ -11794,7 +11759,7 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="174"/>
+      <c r="A137" s="266"/>
       <c r="B137" s="31" t="s">
         <v>18</v>
       </c>
@@ -11922,29 +11887,60 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:N51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="AG129:AI129"/>
+    <mergeCell ref="R129:T129"/>
+    <mergeCell ref="U129:W129"/>
+    <mergeCell ref="X129:Z129"/>
+    <mergeCell ref="AA129:AC129"/>
+    <mergeCell ref="AD129:AF129"/>
+    <mergeCell ref="AG85:AI85"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="X107:Z107"/>
+    <mergeCell ref="AA107:AC107"/>
+    <mergeCell ref="AD107:AF107"/>
+    <mergeCell ref="AG107:AI107"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AI63"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="O129:Q129"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="B117:N117"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="C118:C119"/>
     <mergeCell ref="D118:N118"/>
@@ -11961,60 +11957,29 @@
     <mergeCell ref="B73:N73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="L129:N129"/>
-    <mergeCell ref="O129:Q129"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="B117:N117"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AI63"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG85:AI85"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="I107:K107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="R107:T107"/>
-    <mergeCell ref="U107:W107"/>
-    <mergeCell ref="X107:Z107"/>
-    <mergeCell ref="AA107:AC107"/>
-    <mergeCell ref="AD107:AF107"/>
-    <mergeCell ref="AG107:AI107"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="U85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="AG129:AI129"/>
-    <mergeCell ref="R129:T129"/>
-    <mergeCell ref="U129:W129"/>
-    <mergeCell ref="X129:Z129"/>
-    <mergeCell ref="AA129:AC129"/>
-    <mergeCell ref="AD129:AF129"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:N51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A21:A27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 F3:F6 F10:F11 G9 G11:H11 L14 F21:F23 F14:F18 I21:I22">
@@ -12076,14 +12041,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187"/>
+      <c r="A1" s="267"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="192"/>
+      <c r="C1" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="243"/>
       <c r="E1" s="133" t="s">
         <v>1</v>
       </c>
@@ -12135,7 +12100,7 @@
       <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:35" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="188"/>
+      <c r="A2" s="268"/>
       <c r="B2" s="117" t="s">
         <v>5</v>
       </c>
@@ -12291,22 +12256,22 @@
       <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="180"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="263"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
@@ -12315,10 +12280,10 @@
       <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="197"/>
+      <c r="B8" s="275"/>
       <c r="C8" s="108" t="s">
         <v>9</v>
       </c>
@@ -12368,7 +12333,7 @@
       <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="233" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="121" t="s">
@@ -12428,7 +12393,7 @@
       <c r="AI9" s="36"/>
     </row>
     <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="112" t="s">
         <v>30</v>
       </c>
@@ -12488,7 +12453,7 @@
       <c r="AI10" s="36"/>
     </row>
     <row r="11" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="201"/>
+      <c r="A11" s="234"/>
       <c r="B11" s="112" t="s">
         <v>32</v>
       </c>
@@ -12557,10 +12522,10 @@
       <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="1:35" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="233" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="255" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="114">
@@ -12620,8 +12585,8 @@
       <c r="AI12" s="36"/>
     </row>
     <row r="13" spans="1:35" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
-      <c r="B13" s="200"/>
+      <c r="A13" s="234"/>
+      <c r="B13" s="274"/>
       <c r="C13" s="114">
         <f>$M$2/2</f>
         <v>12.5</v>
@@ -12681,7 +12646,7 @@
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="190"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="113" t="s">
         <v>84</v>
       </c>
@@ -12740,7 +12705,7 @@
       <c r="AI14" s="36"/>
     </row>
     <row r="15" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="233" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="121" t="s">
@@ -12803,7 +12768,7 @@
       <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="112" t="s">
         <v>29</v>
       </c>
@@ -12864,7 +12829,7 @@
       <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="112" t="s">
         <v>31</v>
       </c>
@@ -12922,7 +12887,7 @@
       <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="201"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="122" t="s">
         <v>32</v>
       </c>
@@ -12982,7 +12947,7 @@
       <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="233" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -13046,7 +13011,7 @@
       <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="190"/>
+      <c r="A20" s="241"/>
       <c r="B20" s="113" t="s">
         <v>84</v>
       </c>
@@ -13102,7 +13067,7 @@
       <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="1:35" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="233" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="121" t="s">
@@ -13159,7 +13124,7 @@
       <c r="AI21" s="36"/>
     </row>
     <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="112" t="s">
         <v>30</v>
       </c>
@@ -13216,7 +13181,7 @@
       <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="112" t="s">
         <v>31</v>
       </c>
@@ -13269,7 +13234,7 @@
       <c r="AI23" s="36"/>
     </row>
     <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="112" t="s">
         <v>32</v>
       </c>
@@ -13326,8 +13291,8 @@
       <c r="AI24" s="36"/>
     </row>
     <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
-      <c r="B25" s="198"/>
+      <c r="A25" s="234"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="114"/>
       <c r="D25" s="33"/>
       <c r="E25" s="106"/>
@@ -13349,8 +13314,8 @@
       <c r="AI25" s="36"/>
     </row>
     <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
-      <c r="B26" s="199"/>
+      <c r="A26" s="234"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="114"/>
       <c r="D26" s="33"/>
       <c r="E26" s="106"/>
@@ -13372,8 +13337,8 @@
       <c r="AI26" s="36"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="201"/>
-      <c r="B27" s="200"/>
+      <c r="A27" s="234"/>
+      <c r="B27" s="274"/>
       <c r="C27" s="114"/>
       <c r="D27" s="33"/>
       <c r="E27" s="106"/>
@@ -13423,24 +13388,24 @@
       <c r="AI28" s="36"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="244" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="195"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="245"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="246"/>
       <c r="O29" s="46"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="1"/>
@@ -13449,42 +13414,42 @@
       <c r="AI29" s="36"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="176"/>
-      <c r="B30" s="189" t="s">
+      <c r="A30" s="253"/>
+      <c r="B30" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="247" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="186"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="249"/>
+      <c r="M30" s="249"/>
+      <c r="N30" s="250"/>
       <c r="O30" s="46"/>
       <c r="P30" s="1"/>
-      <c r="R30" s="204" t="s">
+      <c r="R30" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205"/>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="206"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
+      <c r="U30" s="231"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="231"/>
+      <c r="X30" s="232"/>
     </row>
     <row r="31" spans="1:35" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="176"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="184"/>
+      <c r="A31" s="253"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="248"/>
       <c r="D31" s="68" t="s">
         <v>74</v>
       </c>
@@ -13526,10 +13491,10 @@
       <c r="S31" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="T31" s="202" t="s">
+      <c r="T31" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="203"/>
+      <c r="U31" s="229"/>
       <c r="V31" s="44" t="s">
         <v>106</v>
       </c>
@@ -13541,7 +13506,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="176"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="65" t="s">
         <v>72</v>
       </c>
@@ -13607,7 +13572,7 @@
       <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="176"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="66" t="s">
         <v>50</v>
       </c>
@@ -13658,7 +13623,7 @@
       <c r="AH33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="176"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="66" t="s">
         <v>42</v>
       </c>
@@ -13705,7 +13670,7 @@
       <c r="X34" s="158"/>
     </row>
     <row r="35" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="176"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="66" t="s">
         <v>43</v>
       </c>
@@ -13742,7 +13707,7 @@
       <c r="X35" s="158"/>
     </row>
     <row r="36" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="176"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="66" t="s">
         <v>44</v>
       </c>
@@ -13784,7 +13749,7 @@
       <c r="X36" s="158"/>
     </row>
     <row r="37" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
+      <c r="A37" s="253"/>
       <c r="B37" s="66" t="s">
         <v>45</v>
       </c>
@@ -13814,7 +13779,7 @@
       <c r="X37" s="158"/>
     </row>
     <row r="38" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="177"/>
+      <c r="A38" s="254"/>
       <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
@@ -13917,7 +13882,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="237" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -13933,59 +13898,59 @@
       <c r="E41" s="94">
         <v>0</v>
       </c>
-      <c r="F41" s="169" t="s">
+      <c r="F41" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="170"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="169" t="s">
+      <c r="G41" s="272"/>
+      <c r="H41" s="273"/>
+      <c r="I41" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="170"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="169" t="s">
+      <c r="J41" s="272"/>
+      <c r="K41" s="273"/>
+      <c r="L41" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="170"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="169" t="s">
+      <c r="M41" s="272"/>
+      <c r="N41" s="273"/>
+      <c r="O41" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="170"/>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="169" t="s">
+      <c r="P41" s="272"/>
+      <c r="Q41" s="273"/>
+      <c r="R41" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S41" s="170"/>
-      <c r="T41" s="171"/>
-      <c r="U41" s="169" t="s">
+      <c r="S41" s="272"/>
+      <c r="T41" s="273"/>
+      <c r="U41" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V41" s="170"/>
-      <c r="W41" s="171"/>
-      <c r="X41" s="169" t="s">
+      <c r="V41" s="272"/>
+      <c r="W41" s="273"/>
+      <c r="X41" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="170"/>
-      <c r="Z41" s="171"/>
-      <c r="AA41" s="169" t="s">
+      <c r="Y41" s="272"/>
+      <c r="Z41" s="273"/>
+      <c r="AA41" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB41" s="170"/>
-      <c r="AC41" s="171"/>
-      <c r="AD41" s="169" t="s">
+      <c r="AB41" s="272"/>
+      <c r="AC41" s="273"/>
+      <c r="AD41" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE41" s="170"/>
-      <c r="AF41" s="171"/>
-      <c r="AG41" s="169" t="s">
+      <c r="AE41" s="272"/>
+      <c r="AF41" s="273"/>
+      <c r="AG41" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH41" s="170"/>
-      <c r="AI41" s="171"/>
+      <c r="AH41" s="272"/>
+      <c r="AI41" s="273"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="173"/>
+      <c r="A42" s="238"/>
       <c r="B42" s="79" t="s">
         <v>12</v>
       </c>
@@ -14090,7 +14055,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="207"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="26" t="s">
         <v>58</v>
       </c>
@@ -14217,7 +14182,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="207"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="29" t="s">
         <v>13</v>
       </c>
@@ -14344,7 +14309,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="207"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="29" t="s">
         <v>14</v>
       </c>
@@ -14471,7 +14436,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="207"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="29" t="s">
         <v>15</v>
       </c>
@@ -14598,7 +14563,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="207"/>
+      <c r="A47" s="239"/>
       <c r="B47" s="29" t="s">
         <v>16</v>
       </c>
@@ -14725,7 +14690,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="207"/>
+      <c r="A48" s="239"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -14852,7 +14817,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="208"/>
+      <c r="A49" s="240"/>
       <c r="B49" s="31" t="s">
         <v>18</v>
       </c>
@@ -15016,24 +14981,24 @@
       <c r="AI50" s="15"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="260" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="179"/>
-      <c r="K51" s="179"/>
-      <c r="L51" s="179"/>
-      <c r="M51" s="179"/>
-      <c r="N51" s="180"/>
+      <c r="C51" s="262"/>
+      <c r="D51" s="262"/>
+      <c r="E51" s="262"/>
+      <c r="F51" s="262"/>
+      <c r="G51" s="262"/>
+      <c r="H51" s="262"/>
+      <c r="I51" s="262"/>
+      <c r="J51" s="262"/>
+      <c r="K51" s="262"/>
+      <c r="L51" s="262"/>
+      <c r="M51" s="262"/>
+      <c r="N51" s="263"/>
       <c r="O51" s="46"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="1"/>
@@ -15042,33 +15007,33 @@
       <c r="AI51" s="36"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="176"/>
-      <c r="B52" s="189" t="s">
+      <c r="A52" s="253"/>
+      <c r="B52" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="183" t="s">
+      <c r="C52" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="185" t="s">
+      <c r="D52" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="185"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="186"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="249"/>
+      <c r="G52" s="249"/>
+      <c r="H52" s="249"/>
+      <c r="I52" s="249"/>
+      <c r="J52" s="249"/>
+      <c r="K52" s="249"/>
+      <c r="L52" s="249"/>
+      <c r="M52" s="249"/>
+      <c r="N52" s="250"/>
       <c r="O52" s="46"/>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="176"/>
-      <c r="B53" s="190"/>
-      <c r="C53" s="184"/>
+      <c r="A53" s="253"/>
+      <c r="B53" s="241"/>
+      <c r="C53" s="248"/>
       <c r="D53" s="68" t="s">
         <v>74</v>
       </c>
@@ -15106,7 +15071,7 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="176"/>
+      <c r="A54" s="253"/>
       <c r="B54" s="65" t="s">
         <v>49</v>
       </c>
@@ -15154,7 +15119,7 @@
       <c r="AH54" s="18"/>
     </row>
     <row r="55" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="176"/>
+      <c r="A55" s="253"/>
       <c r="B55" s="66" t="s">
         <v>50</v>
       </c>
@@ -15202,7 +15167,7 @@
       <c r="AH55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="176"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="66" t="s">
         <v>42</v>
       </c>
@@ -15237,7 +15202,7 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="66" t="s">
         <v>43</v>
       </c>
@@ -15272,7 +15237,7 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="176"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="66" t="s">
         <v>44</v>
       </c>
@@ -15297,7 +15262,7 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="176"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="66" t="s">
         <v>45</v>
       </c>
@@ -15320,7 +15285,7 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="177"/>
+      <c r="A60" s="254"/>
       <c r="B60" s="67" t="s">
         <v>46</v>
       </c>
@@ -15405,7 +15370,7 @@
       <c r="AI62" s="22"/>
     </row>
     <row r="63" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="237" t="s">
         <v>52</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -15422,59 +15387,59 @@
       <c r="E63" s="91">
         <v>0</v>
       </c>
-      <c r="F63" s="169" t="s">
+      <c r="F63" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="170"/>
-      <c r="H63" s="171"/>
-      <c r="I63" s="169" t="s">
+      <c r="G63" s="272"/>
+      <c r="H63" s="273"/>
+      <c r="I63" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="170"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="169" t="s">
+      <c r="J63" s="272"/>
+      <c r="K63" s="273"/>
+      <c r="L63" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M63" s="170"/>
-      <c r="N63" s="171"/>
-      <c r="O63" s="169" t="s">
+      <c r="M63" s="272"/>
+      <c r="N63" s="273"/>
+      <c r="O63" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="170"/>
-      <c r="Q63" s="171"/>
-      <c r="R63" s="169" t="s">
+      <c r="P63" s="272"/>
+      <c r="Q63" s="273"/>
+      <c r="R63" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S63" s="170"/>
-      <c r="T63" s="171"/>
-      <c r="U63" s="169" t="s">
+      <c r="S63" s="272"/>
+      <c r="T63" s="273"/>
+      <c r="U63" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V63" s="170"/>
-      <c r="W63" s="171"/>
-      <c r="X63" s="169" t="s">
+      <c r="V63" s="272"/>
+      <c r="W63" s="273"/>
+      <c r="X63" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y63" s="170"/>
-      <c r="Z63" s="171"/>
-      <c r="AA63" s="169" t="s">
+      <c r="Y63" s="272"/>
+      <c r="Z63" s="273"/>
+      <c r="AA63" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB63" s="170"/>
-      <c r="AC63" s="171"/>
-      <c r="AD63" s="169" t="s">
+      <c r="AB63" s="272"/>
+      <c r="AC63" s="273"/>
+      <c r="AD63" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE63" s="170"/>
-      <c r="AF63" s="171"/>
-      <c r="AG63" s="169" t="s">
+      <c r="AE63" s="272"/>
+      <c r="AF63" s="273"/>
+      <c r="AG63" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH63" s="170"/>
-      <c r="AI63" s="171"/>
+      <c r="AH63" s="272"/>
+      <c r="AI63" s="273"/>
     </row>
     <row r="64" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="173"/>
+      <c r="A64" s="238"/>
       <c r="B64" s="72" t="s">
         <v>12</v>
       </c>
@@ -15579,7 +15544,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="173"/>
+      <c r="A65" s="238"/>
       <c r="B65" s="26" t="s">
         <v>58</v>
       </c>
@@ -15706,7 +15671,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="173"/>
+      <c r="A66" s="238"/>
       <c r="B66" s="29" t="s">
         <v>13</v>
       </c>
@@ -15833,7 +15798,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="173"/>
+      <c r="A67" s="238"/>
       <c r="B67" s="29" t="s">
         <v>14</v>
       </c>
@@ -15960,7 +15925,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="173"/>
+      <c r="A68" s="238"/>
       <c r="B68" s="29" t="s">
         <v>15</v>
       </c>
@@ -16087,7 +16052,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="173"/>
+      <c r="A69" s="238"/>
       <c r="B69" s="29" t="s">
         <v>16</v>
       </c>
@@ -16214,7 +16179,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="173"/>
+      <c r="A70" s="238"/>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
@@ -16341,7 +16306,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="174"/>
+      <c r="A71" s="266"/>
       <c r="B71" s="31" t="s">
         <v>18</v>
       </c>
@@ -16505,24 +16470,24 @@
       <c r="AI72" s="15"/>
     </row>
     <row r="73" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="175" t="s">
+      <c r="A73" s="260" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="178" t="s">
+      <c r="B73" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="179"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="179"/>
-      <c r="M73" s="179"/>
-      <c r="N73" s="180"/>
+      <c r="C73" s="262"/>
+      <c r="D73" s="262"/>
+      <c r="E73" s="262"/>
+      <c r="F73" s="262"/>
+      <c r="G73" s="262"/>
+      <c r="H73" s="262"/>
+      <c r="I73" s="262"/>
+      <c r="J73" s="262"/>
+      <c r="K73" s="262"/>
+      <c r="L73" s="262"/>
+      <c r="M73" s="262"/>
+      <c r="N73" s="263"/>
       <c r="O73" s="46"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="1"/>
@@ -16531,33 +16496,33 @@
       <c r="AI73" s="36"/>
     </row>
     <row r="74" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="176"/>
-      <c r="B74" s="181" t="s">
+      <c r="A74" s="253"/>
+      <c r="B74" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="183" t="s">
+      <c r="C74" s="247" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="185" t="s">
+      <c r="D74" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="185"/>
-      <c r="L74" s="185"/>
-      <c r="M74" s="185"/>
-      <c r="N74" s="186"/>
+      <c r="E74" s="249"/>
+      <c r="F74" s="249"/>
+      <c r="G74" s="249"/>
+      <c r="H74" s="249"/>
+      <c r="I74" s="249"/>
+      <c r="J74" s="249"/>
+      <c r="K74" s="249"/>
+      <c r="L74" s="249"/>
+      <c r="M74" s="249"/>
+      <c r="N74" s="250"/>
       <c r="O74" s="46"/>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:35" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="176"/>
-      <c r="B75" s="182"/>
-      <c r="C75" s="184"/>
+      <c r="A75" s="253"/>
+      <c r="B75" s="265"/>
+      <c r="C75" s="248"/>
       <c r="D75" s="68" t="s">
         <v>74</v>
       </c>
@@ -16595,7 +16560,7 @@
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="176"/>
+      <c r="A76" s="253"/>
       <c r="B76" s="65" t="s">
         <v>49</v>
       </c>
@@ -16643,7 +16608,7 @@
       <c r="AH76" s="18"/>
     </row>
     <row r="77" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
+      <c r="A77" s="253"/>
       <c r="B77" s="66" t="s">
         <v>50</v>
       </c>
@@ -16691,7 +16656,7 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="176"/>
+      <c r="A78" s="253"/>
       <c r="B78" s="66" t="s">
         <v>42</v>
       </c>
@@ -16722,7 +16687,7 @@
       <c r="U78" s="1"/>
     </row>
     <row r="79" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="176"/>
+      <c r="A79" s="253"/>
       <c r="B79" s="66" t="s">
         <v>43</v>
       </c>
@@ -16753,7 +16718,7 @@
       <c r="U79" s="1"/>
     </row>
     <row r="80" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
+      <c r="A80" s="253"/>
       <c r="B80" s="66" t="s">
         <v>44</v>
       </c>
@@ -16778,7 +16743,7 @@
       <c r="U80" s="1"/>
     </row>
     <row r="81" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
+      <c r="A81" s="253"/>
       <c r="B81" s="66" t="s">
         <v>45</v>
       </c>
@@ -16801,7 +16766,7 @@
       <c r="U81" s="1"/>
     </row>
     <row r="82" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="177"/>
+      <c r="A82" s="254"/>
       <c r="B82" s="67" t="s">
         <v>46</v>
       </c>
@@ -16886,7 +16851,7 @@
       <c r="AI84" s="22"/>
     </row>
     <row r="85" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="237" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="24" t="s">
@@ -16903,59 +16868,59 @@
       <c r="E85" s="94">
         <v>0</v>
       </c>
-      <c r="F85" s="169" t="s">
+      <c r="F85" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="170"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="169" t="s">
+      <c r="G85" s="272"/>
+      <c r="H85" s="273"/>
+      <c r="I85" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="170"/>
-      <c r="K85" s="171"/>
-      <c r="L85" s="169" t="s">
+      <c r="J85" s="272"/>
+      <c r="K85" s="273"/>
+      <c r="L85" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M85" s="170"/>
-      <c r="N85" s="171"/>
-      <c r="O85" s="169" t="s">
+      <c r="M85" s="272"/>
+      <c r="N85" s="273"/>
+      <c r="O85" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P85" s="170"/>
-      <c r="Q85" s="171"/>
-      <c r="R85" s="169" t="s">
+      <c r="P85" s="272"/>
+      <c r="Q85" s="273"/>
+      <c r="R85" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S85" s="170"/>
-      <c r="T85" s="171"/>
-      <c r="U85" s="169" t="s">
+      <c r="S85" s="272"/>
+      <c r="T85" s="273"/>
+      <c r="U85" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V85" s="170"/>
-      <c r="W85" s="171"/>
-      <c r="X85" s="169" t="s">
+      <c r="V85" s="272"/>
+      <c r="W85" s="273"/>
+      <c r="X85" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y85" s="170"/>
-      <c r="Z85" s="171"/>
-      <c r="AA85" s="169" t="s">
+      <c r="Y85" s="272"/>
+      <c r="Z85" s="273"/>
+      <c r="AA85" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB85" s="170"/>
-      <c r="AC85" s="171"/>
-      <c r="AD85" s="169" t="s">
+      <c r="AB85" s="272"/>
+      <c r="AC85" s="273"/>
+      <c r="AD85" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE85" s="170"/>
-      <c r="AF85" s="171"/>
-      <c r="AG85" s="169" t="s">
+      <c r="AE85" s="272"/>
+      <c r="AF85" s="273"/>
+      <c r="AG85" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH85" s="170"/>
-      <c r="AI85" s="171"/>
+      <c r="AH85" s="272"/>
+      <c r="AI85" s="273"/>
     </row>
     <row r="86" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="173"/>
+      <c r="A86" s="238"/>
       <c r="B86" s="72" t="s">
         <v>12</v>
       </c>
@@ -17060,7 +17025,7 @@
       </c>
     </row>
     <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="173"/>
+      <c r="A87" s="238"/>
       <c r="B87" s="26" t="s">
         <v>58</v>
       </c>
@@ -17187,7 +17152,7 @@
       </c>
     </row>
     <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="173"/>
+      <c r="A88" s="238"/>
       <c r="B88" s="29" t="s">
         <v>13</v>
       </c>
@@ -17314,7 +17279,7 @@
       </c>
     </row>
     <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="173"/>
+      <c r="A89" s="238"/>
       <c r="B89" s="29" t="s">
         <v>14</v>
       </c>
@@ -17441,7 +17406,7 @@
       </c>
     </row>
     <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="173"/>
+      <c r="A90" s="238"/>
       <c r="B90" s="29" t="s">
         <v>15</v>
       </c>
@@ -17568,7 +17533,7 @@
       </c>
     </row>
     <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="173"/>
+      <c r="A91" s="238"/>
       <c r="B91" s="29" t="s">
         <v>16</v>
       </c>
@@ -17695,7 +17660,7 @@
       </c>
     </row>
     <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="173"/>
+      <c r="A92" s="238"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -17822,7 +17787,7 @@
       </c>
     </row>
     <row r="93" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="174"/>
+      <c r="A93" s="266"/>
       <c r="B93" s="31" t="s">
         <v>18</v>
       </c>
@@ -17950,24 +17915,24 @@
     </row>
     <row r="94" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="175" t="s">
+      <c r="A95" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="178" t="s">
+      <c r="B95" s="261" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="179"/>
-      <c r="D95" s="179"/>
-      <c r="E95" s="179"/>
-      <c r="F95" s="179"/>
-      <c r="G95" s="179"/>
-      <c r="H95" s="179"/>
-      <c r="I95" s="179"/>
-      <c r="J95" s="179"/>
-      <c r="K95" s="179"/>
-      <c r="L95" s="179"/>
-      <c r="M95" s="179"/>
-      <c r="N95" s="180"/>
+      <c r="C95" s="262"/>
+      <c r="D95" s="262"/>
+      <c r="E95" s="262"/>
+      <c r="F95" s="262"/>
+      <c r="G95" s="262"/>
+      <c r="H95" s="262"/>
+      <c r="I95" s="262"/>
+      <c r="J95" s="262"/>
+      <c r="K95" s="262"/>
+      <c r="L95" s="262"/>
+      <c r="M95" s="262"/>
+      <c r="N95" s="263"/>
       <c r="O95" s="46"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="1"/>
@@ -17976,33 +17941,33 @@
       <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="176"/>
-      <c r="B96" s="181" t="s">
+      <c r="A96" s="253"/>
+      <c r="B96" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="183" t="s">
+      <c r="C96" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="185" t="s">
+      <c r="D96" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="185"/>
-      <c r="F96" s="185"/>
-      <c r="G96" s="185"/>
-      <c r="H96" s="185"/>
-      <c r="I96" s="185"/>
-      <c r="J96" s="185"/>
-      <c r="K96" s="185"/>
-      <c r="L96" s="185"/>
-      <c r="M96" s="185"/>
-      <c r="N96" s="186"/>
+      <c r="E96" s="249"/>
+      <c r="F96" s="249"/>
+      <c r="G96" s="249"/>
+      <c r="H96" s="249"/>
+      <c r="I96" s="249"/>
+      <c r="J96" s="249"/>
+      <c r="K96" s="249"/>
+      <c r="L96" s="249"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="250"/>
       <c r="O96" s="46"/>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="176"/>
-      <c r="B97" s="182"/>
-      <c r="C97" s="184"/>
+      <c r="A97" s="253"/>
+      <c r="B97" s="265"/>
+      <c r="C97" s="248"/>
       <c r="D97" s="68" t="s">
         <v>74</v>
       </c>
@@ -18040,7 +18005,7 @@
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="176"/>
+      <c r="A98" s="253"/>
       <c r="B98" s="65" t="s">
         <v>49</v>
       </c>
@@ -18092,7 +18057,7 @@
       <c r="AH98" s="18"/>
     </row>
     <row r="99" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="176"/>
+      <c r="A99" s="253"/>
       <c r="B99" s="66" t="s">
         <v>50</v>
       </c>
@@ -18144,7 +18109,7 @@
       <c r="AH99" s="1"/>
     </row>
     <row r="100" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="176"/>
+      <c r="A100" s="253"/>
       <c r="B100" s="66" t="s">
         <v>42</v>
       </c>
@@ -18183,7 +18148,7 @@
       <c r="U100" s="1"/>
     </row>
     <row r="101" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="176"/>
+      <c r="A101" s="253"/>
       <c r="B101" s="66" t="s">
         <v>43</v>
       </c>
@@ -18222,7 +18187,7 @@
       <c r="U101" s="1"/>
     </row>
     <row r="102" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="176"/>
+      <c r="A102" s="253"/>
       <c r="B102" s="66" t="s">
         <v>44</v>
       </c>
@@ -18247,7 +18212,7 @@
       <c r="U102" s="1"/>
     </row>
     <row r="103" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A103" s="176"/>
+      <c r="A103" s="253"/>
       <c r="B103" s="66" t="s">
         <v>45</v>
       </c>
@@ -18270,7 +18235,7 @@
       <c r="U103" s="1"/>
     </row>
     <row r="104" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="177"/>
+      <c r="A104" s="254"/>
       <c r="B104" s="67" t="s">
         <v>46</v>
       </c>
@@ -18355,7 +18320,7 @@
       <c r="AI106" s="22"/>
     </row>
     <row r="107" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="172" t="s">
+      <c r="A107" s="237" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -18370,59 +18335,59 @@
       <c r="E107" s="94">
         <v>0</v>
       </c>
-      <c r="F107" s="169" t="s">
+      <c r="F107" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="170"/>
-      <c r="H107" s="171"/>
-      <c r="I107" s="169" t="s">
+      <c r="G107" s="272"/>
+      <c r="H107" s="273"/>
+      <c r="I107" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J107" s="170"/>
-      <c r="K107" s="171"/>
-      <c r="L107" s="169" t="s">
+      <c r="J107" s="272"/>
+      <c r="K107" s="273"/>
+      <c r="L107" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M107" s="170"/>
-      <c r="N107" s="171"/>
-      <c r="O107" s="169" t="s">
+      <c r="M107" s="272"/>
+      <c r="N107" s="273"/>
+      <c r="O107" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P107" s="170"/>
-      <c r="Q107" s="171"/>
-      <c r="R107" s="169" t="s">
+      <c r="P107" s="272"/>
+      <c r="Q107" s="273"/>
+      <c r="R107" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S107" s="170"/>
-      <c r="T107" s="171"/>
-      <c r="U107" s="169" t="s">
+      <c r="S107" s="272"/>
+      <c r="T107" s="273"/>
+      <c r="U107" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V107" s="170"/>
-      <c r="W107" s="171"/>
-      <c r="X107" s="169" t="s">
+      <c r="V107" s="272"/>
+      <c r="W107" s="273"/>
+      <c r="X107" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y107" s="170"/>
-      <c r="Z107" s="171"/>
-      <c r="AA107" s="169" t="s">
+      <c r="Y107" s="272"/>
+      <c r="Z107" s="273"/>
+      <c r="AA107" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB107" s="170"/>
-      <c r="AC107" s="171"/>
-      <c r="AD107" s="169" t="s">
+      <c r="AB107" s="272"/>
+      <c r="AC107" s="273"/>
+      <c r="AD107" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE107" s="170"/>
-      <c r="AF107" s="171"/>
-      <c r="AG107" s="169" t="s">
+      <c r="AE107" s="272"/>
+      <c r="AF107" s="273"/>
+      <c r="AG107" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH107" s="170"/>
-      <c r="AI107" s="171"/>
+      <c r="AH107" s="272"/>
+      <c r="AI107" s="273"/>
     </row>
     <row r="108" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="173"/>
+      <c r="A108" s="238"/>
       <c r="B108" s="72" t="s">
         <v>70</v>
       </c>
@@ -18527,7 +18492,7 @@
       </c>
     </row>
     <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="173"/>
+      <c r="A109" s="238"/>
       <c r="B109" s="26" t="s">
         <v>58</v>
       </c>
@@ -18654,7 +18619,7 @@
       </c>
     </row>
     <row r="110" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="173"/>
+      <c r="A110" s="238"/>
       <c r="B110" s="29" t="s">
         <v>13</v>
       </c>
@@ -18781,7 +18746,7 @@
       </c>
     </row>
     <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="173"/>
+      <c r="A111" s="238"/>
       <c r="B111" s="29" t="s">
         <v>14</v>
       </c>
@@ -18908,7 +18873,7 @@
       </c>
     </row>
     <row r="112" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="173"/>
+      <c r="A112" s="238"/>
       <c r="B112" s="29" t="s">
         <v>15</v>
       </c>
@@ -19035,7 +19000,7 @@
       </c>
     </row>
     <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="173"/>
+      <c r="A113" s="238"/>
       <c r="B113" s="29" t="s">
         <v>16</v>
       </c>
@@ -19162,7 +19127,7 @@
       </c>
     </row>
     <row r="114" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="173"/>
+      <c r="A114" s="238"/>
       <c r="B114" s="29" t="s">
         <v>17</v>
       </c>
@@ -19289,7 +19254,7 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="174"/>
+      <c r="A115" s="266"/>
       <c r="B115" s="31" t="s">
         <v>18</v>
       </c>
@@ -19417,24 +19382,24 @@
     </row>
     <row r="116" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="175" t="s">
+      <c r="A117" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="178" t="s">
+      <c r="B117" s="261" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="179"/>
-      <c r="D117" s="179"/>
-      <c r="E117" s="179"/>
-      <c r="F117" s="179"/>
-      <c r="G117" s="179"/>
-      <c r="H117" s="179"/>
-      <c r="I117" s="179"/>
-      <c r="J117" s="179"/>
-      <c r="K117" s="179"/>
-      <c r="L117" s="179"/>
-      <c r="M117" s="179"/>
-      <c r="N117" s="180"/>
+      <c r="C117" s="262"/>
+      <c r="D117" s="262"/>
+      <c r="E117" s="262"/>
+      <c r="F117" s="262"/>
+      <c r="G117" s="262"/>
+      <c r="H117" s="262"/>
+      <c r="I117" s="262"/>
+      <c r="J117" s="262"/>
+      <c r="K117" s="262"/>
+      <c r="L117" s="262"/>
+      <c r="M117" s="262"/>
+      <c r="N117" s="263"/>
       <c r="O117" s="46"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="1"/>
@@ -19443,33 +19408,33 @@
       <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="176"/>
-      <c r="B118" s="181" t="s">
+      <c r="A118" s="253"/>
+      <c r="B118" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="183" t="s">
+      <c r="C118" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="185" t="s">
+      <c r="D118" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="185"/>
-      <c r="F118" s="185"/>
-      <c r="G118" s="185"/>
-      <c r="H118" s="185"/>
-      <c r="I118" s="185"/>
-      <c r="J118" s="185"/>
-      <c r="K118" s="185"/>
-      <c r="L118" s="185"/>
-      <c r="M118" s="185"/>
-      <c r="N118" s="186"/>
+      <c r="E118" s="249"/>
+      <c r="F118" s="249"/>
+      <c r="G118" s="249"/>
+      <c r="H118" s="249"/>
+      <c r="I118" s="249"/>
+      <c r="J118" s="249"/>
+      <c r="K118" s="249"/>
+      <c r="L118" s="249"/>
+      <c r="M118" s="249"/>
+      <c r="N118" s="250"/>
       <c r="O118" s="46"/>
       <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:35" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="176"/>
-      <c r="B119" s="182"/>
-      <c r="C119" s="184"/>
+      <c r="A119" s="253"/>
+      <c r="B119" s="265"/>
+      <c r="C119" s="248"/>
       <c r="D119" s="68" t="s">
         <v>74</v>
       </c>
@@ -19507,7 +19472,7 @@
       <c r="P119" s="1"/>
     </row>
     <row r="120" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="176"/>
+      <c r="A120" s="253"/>
       <c r="B120" s="65" t="s">
         <v>49</v>
       </c>
@@ -19559,7 +19524,7 @@
       <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A121" s="176"/>
+      <c r="A121" s="253"/>
       <c r="B121" s="66" t="s">
         <v>50</v>
       </c>
@@ -19611,7 +19576,7 @@
       <c r="AH121" s="1"/>
     </row>
     <row r="122" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="176"/>
+      <c r="A122" s="253"/>
       <c r="B122" s="66" t="s">
         <v>42</v>
       </c>
@@ -19650,7 +19615,7 @@
       <c r="U122" s="1"/>
     </row>
     <row r="123" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" s="176"/>
+      <c r="A123" s="253"/>
       <c r="B123" s="66" t="s">
         <v>43</v>
       </c>
@@ -19689,7 +19654,7 @@
       <c r="U123" s="1"/>
     </row>
     <row r="124" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A124" s="176"/>
+      <c r="A124" s="253"/>
       <c r="B124" s="66" t="s">
         <v>44</v>
       </c>
@@ -19714,7 +19679,7 @@
       <c r="U124" s="1"/>
     </row>
     <row r="125" spans="1:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="A125" s="176"/>
+      <c r="A125" s="253"/>
       <c r="B125" s="66" t="s">
         <v>45</v>
       </c>
@@ -19737,7 +19702,7 @@
       <c r="U125" s="1"/>
     </row>
     <row r="126" spans="1:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="177"/>
+      <c r="A126" s="254"/>
       <c r="B126" s="67" t="s">
         <v>46</v>
       </c>
@@ -19822,7 +19787,7 @@
       <c r="AI128" s="22"/>
     </row>
     <row r="129" spans="1:35" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="172" t="s">
+      <c r="A129" s="237" t="s">
         <v>54</v>
       </c>
       <c r="B129" s="24" t="s">
@@ -19838,59 +19803,59 @@
       <c r="E129" s="94">
         <v>0</v>
       </c>
-      <c r="F129" s="169" t="s">
+      <c r="F129" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="170"/>
-      <c r="H129" s="171"/>
-      <c r="I129" s="169" t="s">
+      <c r="G129" s="272"/>
+      <c r="H129" s="273"/>
+      <c r="I129" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="J129" s="170"/>
-      <c r="K129" s="171"/>
-      <c r="L129" s="169" t="s">
+      <c r="J129" s="272"/>
+      <c r="K129" s="273"/>
+      <c r="L129" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="M129" s="170"/>
-      <c r="N129" s="171"/>
-      <c r="O129" s="169" t="s">
+      <c r="M129" s="272"/>
+      <c r="N129" s="273"/>
+      <c r="O129" s="271" t="s">
         <v>62</v>
       </c>
-      <c r="P129" s="170"/>
-      <c r="Q129" s="171"/>
-      <c r="R129" s="169" t="s">
+      <c r="P129" s="272"/>
+      <c r="Q129" s="273"/>
+      <c r="R129" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="S129" s="170"/>
-      <c r="T129" s="171"/>
-      <c r="U129" s="169" t="s">
+      <c r="S129" s="272"/>
+      <c r="T129" s="273"/>
+      <c r="U129" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="V129" s="170"/>
-      <c r="W129" s="171"/>
-      <c r="X129" s="169" t="s">
+      <c r="V129" s="272"/>
+      <c r="W129" s="273"/>
+      <c r="X129" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="Y129" s="170"/>
-      <c r="Z129" s="171"/>
-      <c r="AA129" s="169" t="s">
+      <c r="Y129" s="272"/>
+      <c r="Z129" s="273"/>
+      <c r="AA129" s="271" t="s">
         <v>66</v>
       </c>
-      <c r="AB129" s="170"/>
-      <c r="AC129" s="171"/>
-      <c r="AD129" s="169" t="s">
+      <c r="AB129" s="272"/>
+      <c r="AC129" s="273"/>
+      <c r="AD129" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="AE129" s="170"/>
-      <c r="AF129" s="171"/>
-      <c r="AG129" s="169" t="s">
+      <c r="AE129" s="272"/>
+      <c r="AF129" s="273"/>
+      <c r="AG129" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AH129" s="170"/>
-      <c r="AI129" s="171"/>
+      <c r="AH129" s="272"/>
+      <c r="AI129" s="273"/>
     </row>
     <row r="130" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="173"/>
+      <c r="A130" s="238"/>
       <c r="B130" s="72" t="s">
         <v>12</v>
       </c>
@@ -19995,7 +19960,7 @@
       </c>
     </row>
     <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="173"/>
+      <c r="A131" s="238"/>
       <c r="B131" s="26" t="s">
         <v>58</v>
       </c>
@@ -20122,7 +20087,7 @@
       </c>
     </row>
     <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="173"/>
+      <c r="A132" s="238"/>
       <c r="B132" s="29" t="s">
         <v>13</v>
       </c>
@@ -20249,7 +20214,7 @@
       </c>
     </row>
     <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="173"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="29" t="s">
         <v>14</v>
       </c>
@@ -20376,7 +20341,7 @@
       </c>
     </row>
     <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="173"/>
+      <c r="A134" s="238"/>
       <c r="B134" s="29" t="s">
         <v>15</v>
       </c>
@@ -20503,7 +20468,7 @@
       </c>
     </row>
     <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="173"/>
+      <c r="A135" s="238"/>
       <c r="B135" s="29" t="s">
         <v>16</v>
       </c>
@@ -20630,7 +20595,7 @@
       </c>
     </row>
     <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="173"/>
+      <c r="A136" s="238"/>
       <c r="B136" s="29" t="s">
         <v>17</v>
       </c>
@@ -20757,7 +20722,7 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="174"/>
+      <c r="A137" s="266"/>
       <c r="B137" s="31" t="s">
         <v>18</v>
       </c>
@@ -20885,21 +20850,68 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AG129:AI129"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="L129:N129"/>
-    <mergeCell ref="O129:Q129"/>
-    <mergeCell ref="R129:T129"/>
-    <mergeCell ref="U107:W107"/>
-    <mergeCell ref="X107:Z107"/>
-    <mergeCell ref="AA107:AC107"/>
-    <mergeCell ref="AD107:AF107"/>
-    <mergeCell ref="U129:W129"/>
-    <mergeCell ref="X129:Z129"/>
-    <mergeCell ref="AA129:AC129"/>
-    <mergeCell ref="AD129:AF129"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:N51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="AG63:AI63"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:N96"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="L85:N85"/>
     <mergeCell ref="AG85:AI85"/>
     <mergeCell ref="AG107:AI107"/>
     <mergeCell ref="A117:A126"/>
@@ -20916,68 +20928,21 @@
     <mergeCell ref="A95:A104"/>
     <mergeCell ref="B95:N95"/>
     <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:N96"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="U85:W85"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="AG63:AI63"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="B73:N73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:N51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="X107:Z107"/>
+    <mergeCell ref="AA107:AC107"/>
+    <mergeCell ref="AD107:AF107"/>
+    <mergeCell ref="U129:W129"/>
+    <mergeCell ref="X129:Z129"/>
+    <mergeCell ref="AA129:AC129"/>
+    <mergeCell ref="AD129:AF129"/>
+    <mergeCell ref="AG129:AI129"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="O129:Q129"/>
+    <mergeCell ref="R129:T129"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
